--- a/capiq_data/in_process_data/IQ28202.xlsx
+++ b/capiq_data/in_process_data/IQ28202.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29A8537-4829-4A11-9D41-3EAC9B00C9B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDF16B2-D2C5-4E77-BCA8-F624D081B0A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ca9dd739-0a5a-4c09-aa62-b7ff847bebfb"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a77c5d2c-f91a-4698-9548-9dd229354b3d"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>13.76</v>
+        <v>-42.884999999999998</v>
       </c>
       <c r="D2">
-        <v>345.24400000000003</v>
+        <v>8.0549999999999997</v>
       </c>
       <c r="E2">
-        <v>116.358</v>
+        <v>4.9249999999999998</v>
       </c>
       <c r="F2">
-        <v>151.685</v>
+        <v>-14.084</v>
       </c>
       <c r="G2">
-        <v>630.85599999999999</v>
+        <v>205.53899999999999</v>
       </c>
       <c r="H2">
-        <v>4448.009</v>
+        <v>683.48500000000001</v>
       </c>
       <c r="I2">
-        <v>12.585000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="J2">
-        <v>1766.674</v>
+        <v>192.41399999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>318.11500000000001</v>
+        <v>111.29900000000001</v>
       </c>
       <c r="O2">
-        <v>2567.4940000000001</v>
+        <v>308.36900000000003</v>
       </c>
       <c r="P2">
-        <v>2048.585</v>
+        <v>196.84</v>
       </c>
       <c r="Q2">
-        <v>53.692</v>
+        <v>-99.096000000000004</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1921</v>
+        <v>316</v>
       </c>
       <c r="T2">
-        <v>1880.5150000000001</v>
+        <v>375.11599999999999</v>
       </c>
       <c r="U2">
-        <v>442.84100000000001</v>
+        <v>174.773</v>
       </c>
       <c r="V2">
-        <v>122.89100000000001</v>
+        <v>-30.725999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-85.989000000000004</v>
+        <v>-11.773</v>
       </c>
       <c r="Y2">
-        <v>253.94499999999999</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>176.172</v>
+        <v>4.2779999999999996</v>
       </c>
       <c r="AA2">
-        <v>13.76</v>
+        <v>-42.884999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>25.145</v>
+        <v>-41.536999999999999</v>
       </c>
       <c r="D3">
-        <v>363.029</v>
+        <v>12.613</v>
       </c>
       <c r="E3">
-        <v>114.20699999999999</v>
+        <v>6.3780000000000001</v>
       </c>
       <c r="F3">
-        <v>168.453</v>
+        <v>-11.065</v>
       </c>
       <c r="G3">
-        <v>544.95000000000005</v>
+        <v>200.91</v>
       </c>
       <c r="H3">
-        <v>4652.5129999999999</v>
+        <v>747.83399999999995</v>
       </c>
       <c r="I3">
-        <v>17.216000000000001</v>
+        <v>12.451000000000001</v>
       </c>
       <c r="J3">
-        <v>1798.942</v>
+        <v>318.98</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-12.07</v>
+        <v>-0.94</v>
       </c>
       <c r="N3">
-        <v>343.274</v>
+        <v>84.405000000000001</v>
       </c>
       <c r="O3">
-        <v>2665.116</v>
+        <v>410.61399999999998</v>
       </c>
       <c r="P3">
-        <v>2124.44</v>
+        <v>324.39499999999998</v>
       </c>
       <c r="Q3">
-        <v>-138.375</v>
+        <v>-8.9039999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1987.3969999999999</v>
+        <v>337.22</v>
       </c>
       <c r="U3">
-        <v>304.46600000000001</v>
+        <v>165.869</v>
       </c>
       <c r="V3">
-        <v>117.77</v>
+        <v>-19.399000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>26.126000000000001</v>
+        <v>128.554</v>
       </c>
       <c r="Y3">
-        <v>296.91300000000001</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-2.1850000000000001</v>
+        <v>-47.938000000000002</v>
       </c>
       <c r="AA3">
-        <v>25.145</v>
+        <v>-41.536999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-37.856999999999999</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>16.157</v>
       </c>
       <c r="E4">
-        <v>140.316</v>
+        <v>6.3049999999999997</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-10.161</v>
       </c>
       <c r="G4">
-        <v>554.84199999999998</v>
+        <v>139.75700000000001</v>
       </c>
       <c r="H4">
-        <v>4969.1909999999998</v>
+        <v>708.78800000000001</v>
       </c>
       <c r="I4">
-        <v>21.202000000000002</v>
+        <v>16.236000000000001</v>
       </c>
       <c r="J4">
-        <v>1639.5329999999999</v>
+        <v>346.66800000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>620.45100000000002</v>
+        <v>50.965000000000003</v>
       </c>
       <c r="O4">
-        <v>2835.942</v>
+        <v>404.40600000000001</v>
       </c>
       <c r="P4">
-        <v>2257.8609999999999</v>
+        <v>353.66800000000001</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-41.866</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2133.2489999999998</v>
+        <v>304.38200000000001</v>
       </c>
       <c r="U4">
-        <v>297.87200000000001</v>
+        <v>124.003</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-18.434000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>28.387</v>
       </c>
       <c r="Y4">
-        <v>337.274</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-26.207000000000001</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-37.856999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>20.318999999999999</v>
+        <v>-81.573999999999998</v>
       </c>
       <c r="D5">
-        <v>408.20800000000003</v>
+        <v>17.178000000000001</v>
       </c>
       <c r="E5">
-        <v>144.185</v>
+        <v>8.25</v>
       </c>
       <c r="F5">
-        <v>188.48400000000001</v>
+        <v>-7.4189999999999996</v>
       </c>
       <c r="G5">
-        <v>630.05200000000002</v>
+        <v>105.812</v>
       </c>
       <c r="H5">
-        <v>5730.6869999999999</v>
+        <v>648.73900000000003</v>
       </c>
       <c r="I5">
-        <v>21.521000000000001</v>
+        <v>20.814</v>
       </c>
       <c r="J5">
-        <v>2602.047</v>
+        <v>300.46899999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>656.15599999999995</v>
+        <v>112.928</v>
       </c>
       <c r="O5">
-        <v>3639.808</v>
+        <v>421.01400000000001</v>
       </c>
       <c r="P5">
-        <v>3059.547</v>
+        <v>352.49400000000003</v>
       </c>
       <c r="Q5">
-        <v>72.650999999999996</v>
+        <v>-39.351999999999997</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2090.8789999999999</v>
+        <v>227.72499999999999</v>
       </c>
       <c r="U5">
-        <v>370.52300000000002</v>
+        <v>84.650999999999996</v>
       </c>
       <c r="V5">
-        <v>141.87</v>
+        <v>-14.224</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>744.14700000000005</v>
+        <v>-1.8069999999999999</v>
       </c>
       <c r="Y5">
-        <v>128.30500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-677.22900000000004</v>
+        <v>25.689</v>
       </c>
       <c r="AA5">
-        <v>20.318999999999999</v>
+        <v>-81.573999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>17.809999999999999</v>
+        <v>-27.446999999999999</v>
       </c>
       <c r="D6">
-        <v>422.11599999999999</v>
+        <v>17.466000000000001</v>
       </c>
       <c r="E6">
-        <v>139.05699999999999</v>
+        <v>6.9089999999999998</v>
       </c>
       <c r="F6">
-        <v>200.845</v>
+        <v>-2.83</v>
       </c>
       <c r="G6">
-        <v>600.03599999999994</v>
+        <v>74.328000000000003</v>
       </c>
       <c r="H6">
-        <v>5785.3239999999996</v>
+        <v>575.05399999999997</v>
       </c>
       <c r="I6">
-        <v>23.268000000000001</v>
+        <v>4.6379999999999999</v>
       </c>
       <c r="J6">
-        <v>2363.5639999999999</v>
+        <v>299.226</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>725.25400000000002</v>
+        <v>63.329000000000001</v>
       </c>
       <c r="O6">
-        <v>3765.511</v>
+        <v>371.53300000000002</v>
       </c>
       <c r="P6">
-        <v>3099.13</v>
+        <v>306.43200000000002</v>
       </c>
       <c r="Q6">
-        <v>-91.7</v>
+        <v>-25.82</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2709</v>
+        <v>272</v>
       </c>
       <c r="T6">
-        <v>2019.8130000000001</v>
+        <v>203.52099999999999</v>
       </c>
       <c r="U6">
-        <v>278.82299999999998</v>
+        <v>58.831000000000003</v>
       </c>
       <c r="V6">
-        <v>187.62100000000001</v>
+        <v>-16.797000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-83.382999999999996</v>
+        <v>-47.335000000000001</v>
       </c>
       <c r="Y6">
-        <v>390.26900000000001</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.4</v>
+        <v>52.091999999999999</v>
       </c>
       <c r="AA6">
-        <v>17.809999999999999</v>
+        <v>-27.446999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>34.523000000000003</v>
+        <v>-13.694000000000001</v>
       </c>
       <c r="D7">
-        <v>443.245</v>
+        <v>20.158000000000001</v>
       </c>
       <c r="E7">
-        <v>158.56100000000001</v>
+        <v>8.0670000000000002</v>
       </c>
       <c r="F7">
-        <v>226.14699999999999</v>
+        <v>-5.2679999999999998</v>
       </c>
       <c r="G7">
-        <v>890.11300000000006</v>
+        <v>52.991999999999997</v>
       </c>
       <c r="H7">
-        <v>5884.3450000000003</v>
+        <v>531.68700000000001</v>
       </c>
       <c r="I7">
-        <v>26.422999999999998</v>
+        <v>6.1390000000000002</v>
       </c>
       <c r="J7">
-        <v>2616.3209999999999</v>
+        <v>272.99599999999998</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-69.954999999999998</v>
+        <v>-1.7170000000000001</v>
       </c>
       <c r="N7">
-        <v>718.08299999999997</v>
+        <v>42.85</v>
       </c>
       <c r="O7">
-        <v>3754.7950000000001</v>
+        <v>326.11900000000003</v>
       </c>
       <c r="P7">
-        <v>3082.4479999999999</v>
+        <v>281.63600000000002</v>
       </c>
       <c r="Q7">
-        <v>354.12099999999998</v>
+        <v>-25.077999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2129.5500000000002</v>
+        <v>205.56800000000001</v>
       </c>
       <c r="U7">
-        <v>632.94399999999996</v>
+        <v>33.753</v>
       </c>
       <c r="V7">
-        <v>125.99299999999999</v>
+        <v>-2.0449999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-43.95</v>
+        <v>-1.381</v>
       </c>
       <c r="Y7">
-        <v>129.33099999999999</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>346.36599999999999</v>
+        <v>7.4939999999999998</v>
       </c>
       <c r="AA7">
-        <v>34.523000000000003</v>
+        <v>-13.694000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>36.447000000000003</v>
+        <v>-24.556999999999999</v>
       </c>
       <c r="D8">
-        <v>453.23700000000002</v>
+        <v>18.04</v>
       </c>
       <c r="E8">
-        <v>169.81200000000001</v>
+        <v>6.4089999999999998</v>
       </c>
       <c r="F8">
-        <v>225.99299999999999</v>
+        <v>-8.9160000000000004</v>
       </c>
       <c r="G8">
-        <v>894.12699999999995</v>
+        <v>26.652000000000001</v>
       </c>
       <c r="H8">
-        <v>5724.6880000000001</v>
+        <v>470.35599999999999</v>
       </c>
       <c r="I8">
-        <v>27.516999999999999</v>
+        <v>3.92</v>
       </c>
       <c r="J8">
-        <v>2621.9250000000002</v>
+        <v>141.495</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>491.15899999999999</v>
+        <v>126.996</v>
       </c>
       <c r="O8">
-        <v>3581.2130000000002</v>
+        <v>280.077</v>
       </c>
       <c r="P8">
-        <v>2893.473</v>
+        <v>254.251</v>
       </c>
       <c r="Q8">
-        <v>21.152000000000001</v>
+        <v>-16.978000000000002</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2143.4749999999999</v>
+        <v>190.279</v>
       </c>
       <c r="U8">
-        <v>654.096</v>
+        <v>16.774999999999999</v>
       </c>
       <c r="V8">
-        <v>194.78200000000001</v>
+        <v>-23.803999999999998</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-264.71600000000001</v>
+        <v>-5.6260000000000003</v>
       </c>
       <c r="Y8">
-        <v>185.779</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>279.62099999999998</v>
+        <v>14.887</v>
       </c>
       <c r="AA8">
-        <v>33.201999999999998</v>
+        <v>-24.556999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>23.72</v>
+        <v>-44.088000000000001</v>
       </c>
       <c r="D9">
-        <v>484.83499999999998</v>
+        <v>20.187000000000001</v>
       </c>
       <c r="E9">
-        <v>181.97300000000001</v>
+        <v>6.7210000000000001</v>
       </c>
       <c r="F9">
-        <v>233.88900000000001</v>
+        <v>-6.03</v>
       </c>
       <c r="G9">
-        <v>560.399</v>
+        <v>26.959</v>
       </c>
       <c r="H9">
-        <v>5990.97</v>
+        <v>428.31799999999998</v>
       </c>
       <c r="I9">
-        <v>26.387</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="J9">
-        <v>2702.4850000000001</v>
+        <v>142.495</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>612.45899999999995</v>
+        <v>125.202</v>
       </c>
       <c r="O9">
-        <v>3679.13</v>
+        <v>280.452</v>
       </c>
       <c r="P9">
-        <v>2956.529</v>
+        <v>248.05699999999999</v>
       </c>
       <c r="Q9">
-        <v>-414.40899999999999</v>
+        <v>-7.4649999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2311.84</v>
+        <v>147.86600000000001</v>
       </c>
       <c r="U9">
-        <v>239.68700000000001</v>
+        <v>9.31</v>
       </c>
       <c r="V9">
-        <v>107.559</v>
+        <v>-3.8919999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>73.697000000000003</v>
+        <v>-6.6929999999999996</v>
       </c>
       <c r="Y9">
-        <v>189.85900000000001</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-111.574</v>
+        <v>4.181</v>
       </c>
       <c r="AA9">
-        <v>26.965</v>
+        <v>-44.088000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>60.720999999999997</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>18.803000000000001</v>
       </c>
       <c r="E10">
-        <v>163.84</v>
+        <v>9.1519999999999992</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>-6.6710000000000003</v>
       </c>
       <c r="G10">
-        <v>473.6</v>
+        <v>63.494999999999997</v>
       </c>
       <c r="H10">
-        <v>6135.7969999999996</v>
+        <v>492.00299999999999</v>
       </c>
       <c r="I10">
-        <v>27.658999999999999</v>
+        <v>7.2430000000000003</v>
       </c>
       <c r="J10">
-        <v>2397.5279999999998</v>
+        <v>147.42400000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>549.072</v>
+        <v>46.170999999999999</v>
       </c>
       <c r="O10">
-        <v>3738.1779999999999</v>
+        <v>207.809</v>
       </c>
       <c r="P10">
-        <v>3010.7469999999998</v>
+        <v>154.99600000000001</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>31.905999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3153</v>
+        <v>475</v>
       </c>
       <c r="T10">
-        <v>2397.6190000000001</v>
+        <v>284.19400000000002</v>
       </c>
       <c r="U10">
-        <v>252.21299999999999</v>
+        <v>41.216000000000001</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2.2320000000000002</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>30.623999999999999</v>
       </c>
       <c r="Y10">
-        <v>545.85299999999995</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>60.720999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>32.843000000000004</v>
+        <v>-25.553000000000001</v>
       </c>
       <c r="D11">
-        <v>516.13400000000001</v>
+        <v>25.434999999999999</v>
       </c>
       <c r="E11">
-        <v>185.16300000000001</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="F11">
-        <v>257.54300000000001</v>
+        <v>-5.1840000000000002</v>
       </c>
       <c r="G11">
-        <v>1772.568</v>
+        <v>40.261000000000003</v>
       </c>
       <c r="H11">
-        <v>7612.933</v>
+        <v>451.48599999999999</v>
       </c>
       <c r="I11">
-        <v>28.812000000000001</v>
+        <v>5.0250000000000004</v>
       </c>
       <c r="J11">
-        <v>3560.7139999999999</v>
+        <v>146.78899999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-17.568000000000001</v>
+        <v>-2.5179999999999998</v>
       </c>
       <c r="N11">
-        <v>1265.71</v>
+        <v>30.728000000000002</v>
       </c>
       <c r="O11">
-        <v>5173.7809999999999</v>
+        <v>192.40100000000001</v>
       </c>
       <c r="P11">
-        <v>4523.759</v>
+        <v>152.90299999999999</v>
       </c>
       <c r="Q11">
-        <v>432.80599999999998</v>
+        <v>-20.238</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2439.152</v>
+        <v>259.08499999999998</v>
       </c>
       <c r="U11">
-        <v>685.01900000000001</v>
+        <v>20.978000000000002</v>
       </c>
       <c r="V11">
-        <v>84.180999999999997</v>
+        <v>-19.558</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1496.76</v>
+        <v>-2.359</v>
       </c>
       <c r="Y11">
-        <v>149.39099999999999</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-232.965</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>32.843000000000004</v>
+        <v>-25.553000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-25.815999999999999</v>
+        <v>-21.202999999999999</v>
       </c>
       <c r="D12">
-        <v>528.87099999999998</v>
+        <v>28.434000000000001</v>
       </c>
       <c r="E12">
-        <v>201.33600000000001</v>
+        <v>9.9649999999999999</v>
       </c>
       <c r="F12">
-        <v>261.762</v>
+        <v>-3.2</v>
       </c>
       <c r="G12">
-        <v>774.149</v>
+        <v>40.454000000000001</v>
       </c>
       <c r="H12">
-        <v>7077.8490000000002</v>
+        <v>437.39800000000002</v>
       </c>
       <c r="I12">
-        <v>34.222999999999999</v>
+        <v>3.661</v>
       </c>
       <c r="J12">
-        <v>3587.4810000000002</v>
+        <v>142.07499999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>607.53499999999997</v>
+        <v>29.245000000000001</v>
       </c>
       <c r="O12">
-        <v>4669.3599999999997</v>
+        <v>188.35499999999999</v>
       </c>
       <c r="P12">
-        <v>3941.6790000000001</v>
+        <v>152.03899999999999</v>
       </c>
       <c r="Q12">
-        <v>-167.523</v>
+        <v>3.2789999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2408.489</v>
+        <v>249.04300000000001</v>
       </c>
       <c r="U12">
-        <v>517.49599999999998</v>
+        <v>24.257000000000001</v>
       </c>
       <c r="V12">
-        <v>147.15899999999999</v>
+        <v>-2.6880000000000002</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-850.03399999999999</v>
+        <v>6.8979999999999997</v>
       </c>
       <c r="Y12">
-        <v>228.57599999999999</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-175.59299999999999</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-25.815999999999999</v>
+        <v>-21.202999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>42.470999999999997</v>
+        <v>-19.718</v>
       </c>
       <c r="D13">
-        <v>543.08399999999995</v>
+        <v>30.919</v>
       </c>
       <c r="E13">
-        <v>199.64400000000001</v>
+        <v>9.3930000000000007</v>
       </c>
       <c r="F13">
-        <v>274.12400000000002</v>
+        <v>-2.395</v>
       </c>
       <c r="G13">
-        <v>658.73599999999999</v>
+        <v>37.667999999999999</v>
       </c>
       <c r="H13">
-        <v>7389.0439999999999</v>
+        <v>424.38600000000002</v>
       </c>
       <c r="I13">
-        <v>28.483000000000001</v>
+        <v>4.3710000000000004</v>
       </c>
       <c r="J13">
-        <v>3615.864</v>
+        <v>140.059</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>582.22500000000002</v>
+        <v>34.895000000000003</v>
       </c>
       <c r="O13">
-        <v>4834.9889999999996</v>
+        <v>192.827</v>
       </c>
       <c r="P13">
-        <v>4046.576</v>
+        <v>152.47300000000001</v>
       </c>
       <c r="Q13">
-        <v>-117.754</v>
+        <v>-2.5339999999999998</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2554.0549999999998</v>
+        <v>231.559</v>
       </c>
       <c r="U13">
-        <v>399.74200000000002</v>
+        <v>21.722999999999999</v>
       </c>
       <c r="V13">
-        <v>206.56200000000001</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-1.1779999999999999</v>
+        <v>0.432</v>
       </c>
       <c r="Y13">
-        <v>373.548</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-89.218999999999994</v>
+        <v>-3.5</v>
       </c>
       <c r="AA13">
-        <v>42.470999999999997</v>
+        <v>-19.718</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>45.186999999999998</v>
+        <v>-17.696999999999999</v>
       </c>
       <c r="D14">
-        <v>564.67700000000002</v>
+        <v>33.154000000000003</v>
       </c>
       <c r="E14">
-        <v>184.84</v>
+        <v>10.178000000000001</v>
       </c>
       <c r="F14">
-        <v>294.93400000000003</v>
+        <v>0.6</v>
       </c>
       <c r="G14">
-        <v>518.85199999999998</v>
+        <v>40.186</v>
       </c>
       <c r="H14">
-        <v>7492.3590000000004</v>
+        <v>464.53199999999998</v>
       </c>
       <c r="I14">
-        <v>30.291</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="J14">
-        <v>3173.902</v>
+        <v>83.906999999999996</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>546.50400000000002</v>
+        <v>38.526000000000003</v>
       </c>
       <c r="O14">
-        <v>4909.393</v>
+        <v>144.45500000000001</v>
       </c>
       <c r="P14">
-        <v>4158.6559999999999</v>
+        <v>98.596000000000004</v>
       </c>
       <c r="Q14">
-        <v>-137.84800000000001</v>
+        <v>5.1459999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3500</v>
+        <v>431</v>
       </c>
       <c r="T14">
-        <v>2582.9659999999999</v>
+        <v>320.077</v>
       </c>
       <c r="U14">
-        <v>261.89400000000001</v>
+        <v>26.869</v>
       </c>
       <c r="V14">
-        <v>166.70599999999999</v>
+        <v>3.0779999999999998</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-70.641000000000005</v>
+        <v>47.317</v>
       </c>
       <c r="Y14">
-        <v>914.03200000000004</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>18.640999999999998</v>
+        <v>-42.597999999999999</v>
       </c>
       <c r="AA14">
-        <v>45.186999999999998</v>
+        <v>-17.696999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>41.387</v>
+        <v>-30.141999999999999</v>
       </c>
       <c r="D15">
-        <v>580.053</v>
+        <v>36.82</v>
       </c>
       <c r="E15">
-        <v>213.56</v>
+        <v>10.079000000000001</v>
       </c>
       <c r="F15">
-        <v>292.52800000000002</v>
+        <v>3.1160000000000001</v>
       </c>
       <c r="G15">
-        <v>763.64400000000001</v>
+        <v>81.09</v>
       </c>
       <c r="H15">
-        <v>7730.598</v>
+        <v>467.173</v>
       </c>
       <c r="I15">
-        <v>34.363</v>
+        <v>3.87</v>
       </c>
       <c r="J15">
-        <v>3733.451</v>
+        <v>116.468</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-14.567</v>
+        <v>-68.283000000000001</v>
       </c>
       <c r="N15">
-        <v>595.15599999999995</v>
+        <v>24.370999999999999</v>
       </c>
       <c r="O15">
-        <v>5086.6329999999998</v>
+        <v>164.25</v>
       </c>
       <c r="P15">
-        <v>4279.3710000000001</v>
+        <v>116.468</v>
       </c>
       <c r="Q15">
-        <v>233.28</v>
+        <v>34.420999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2643.9650000000001</v>
+        <v>302.923</v>
       </c>
       <c r="U15">
-        <v>495.17399999999998</v>
+        <v>68.843000000000004</v>
       </c>
       <c r="V15">
-        <v>171.71799999999999</v>
+        <v>6.4809999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-37.281999999999996</v>
+        <v>14.3</v>
       </c>
       <c r="Y15">
-        <v>473.91800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>221.654</v>
+        <v>18.763000000000002</v>
       </c>
       <c r="AA15">
-        <v>41.387</v>
+        <v>-30.141999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>11.327999999999999</v>
+        <v>-9.2050000000000001</v>
       </c>
       <c r="D16">
-        <v>605.16099999999994</v>
+        <v>39.423000000000002</v>
       </c>
       <c r="E16">
-        <v>237.83099999999999</v>
+        <v>12.595000000000001</v>
       </c>
       <c r="F16">
-        <v>312.30200000000002</v>
+        <v>5.359</v>
       </c>
       <c r="G16">
-        <v>747.20899999999995</v>
+        <v>65.775999999999996</v>
       </c>
       <c r="H16">
-        <v>7639.6109999999999</v>
+        <v>464.68400000000003</v>
       </c>
       <c r="I16">
-        <v>21.018999999999998</v>
+        <v>4.0170000000000003</v>
       </c>
       <c r="J16">
-        <v>3333.732</v>
+        <v>119.068</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>563.31500000000005</v>
+        <v>24.364000000000001</v>
       </c>
       <c r="O16">
-        <v>4729.3959999999997</v>
+        <v>168.40100000000001</v>
       </c>
       <c r="P16">
-        <v>3936.1750000000002</v>
+        <v>119.068</v>
       </c>
       <c r="Q16">
-        <v>-86.84</v>
+        <v>-17.228999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2910.2150000000001</v>
+        <v>296.28300000000002</v>
       </c>
       <c r="U16">
-        <v>408.334</v>
+        <v>51.563000000000002</v>
       </c>
       <c r="V16">
-        <v>98.963999999999999</v>
+        <v>8.8919999999999995</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-278.928</v>
+        <v>0.53</v>
       </c>
       <c r="Y16">
-        <v>529.596</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>250.73699999999999</v>
+        <v>-21.111000000000001</v>
       </c>
       <c r="AA16">
-        <v>11.327999999999999</v>
+        <v>-9.2050000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>42.841000000000001</v>
+        <v>-6.6150000000000002</v>
       </c>
       <c r="D17">
-        <v>620.44100000000003</v>
+        <v>42.439</v>
       </c>
       <c r="E17">
-        <v>275.26400000000001</v>
+        <v>12.875</v>
       </c>
       <c r="F17">
-        <v>316.38900000000001</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="G17">
-        <v>726.85199999999998</v>
+        <v>58.679000000000002</v>
       </c>
       <c r="H17">
-        <v>7462</v>
+        <v>467.54199999999997</v>
       </c>
       <c r="I17">
-        <v>42.304000000000002</v>
+        <v>4.5179999999999998</v>
       </c>
       <c r="J17">
-        <v>3332.9949999999999</v>
+        <v>119.31399999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>668.2</v>
+        <v>30.936</v>
       </c>
       <c r="O17">
-        <v>4864.32</v>
+        <v>176.345</v>
       </c>
       <c r="P17">
-        <v>3983.6550000000002</v>
+        <v>119.31399999999999</v>
       </c>
       <c r="Q17">
-        <v>-54.152999999999999</v>
+        <v>-8.9809999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2597.6799999999998</v>
+        <v>291.197</v>
       </c>
       <c r="U17">
-        <v>354.18099999999998</v>
+        <v>42.584000000000003</v>
       </c>
       <c r="V17">
-        <v>216.441</v>
+        <v>10.913</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-256.23899999999998</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="Y17">
-        <v>572.76099999999997</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>148.78899999999999</v>
+        <v>-15.282999999999999</v>
       </c>
       <c r="AA17">
-        <v>42.841000000000001</v>
+        <v>-6.6150000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-355.10300000000001</v>
+        <v>-22.669</v>
       </c>
       <c r="D18">
-        <v>638.12099999999998</v>
+        <v>44.988999999999997</v>
       </c>
       <c r="E18">
-        <v>262.57</v>
+        <v>11.919</v>
       </c>
       <c r="F18">
-        <v>324.67200000000003</v>
+        <v>10.026</v>
       </c>
       <c r="G18">
-        <v>961.548</v>
+        <v>42.582999999999998</v>
       </c>
       <c r="H18">
-        <v>7781.9780000000001</v>
+        <v>501.798</v>
       </c>
       <c r="I18">
-        <v>30.221</v>
+        <v>2.835</v>
       </c>
       <c r="J18">
-        <v>3395.0839999999998</v>
+        <v>122.074</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>643.75699999999995</v>
+        <v>32.238</v>
       </c>
       <c r="O18">
-        <v>5511.8469999999998</v>
+        <v>228.09200000000001</v>
       </c>
       <c r="P18">
-        <v>4643.9539999999997</v>
+        <v>157.27799999999999</v>
       </c>
       <c r="Q18">
-        <v>256.73599999999999</v>
+        <v>-9.1419999999999995</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3866</v>
+        <v>468</v>
       </c>
       <c r="T18">
-        <v>2270.1309999999999</v>
+        <v>273.70600000000002</v>
       </c>
       <c r="U18">
-        <v>610.91700000000003</v>
+        <v>25.937999999999999</v>
       </c>
       <c r="V18">
-        <v>202.297</v>
+        <v>10.625999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>679.85</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="Y18">
-        <v>1168.0419999999999</v>
+        <v>34.529000000000003</v>
       </c>
       <c r="Z18">
-        <v>-381.62900000000002</v>
+        <v>-18.509</v>
       </c>
       <c r="AA18">
-        <v>-355.10300000000001</v>
+        <v>-22.669</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>76.451999999999998</v>
+        <v>-5.7939999999999996</v>
       </c>
       <c r="D19">
-        <v>643.17399999999998</v>
+        <v>48.683999999999997</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>14.241</v>
       </c>
       <c r="F19">
-        <v>344.86099999999999</v>
+        <v>12.035</v>
       </c>
       <c r="G19">
-        <v>917.20100000000002</v>
+        <v>60.878999999999998</v>
       </c>
       <c r="H19">
-        <v>7727.6940000000004</v>
+        <v>518.04600000000005</v>
       </c>
       <c r="I19">
-        <v>321.94200000000001</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="J19">
-        <v>3994.1080000000002</v>
+        <v>137.30199999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-18.657</v>
+        <v>-3.222</v>
       </c>
       <c r="N19">
-        <v>666.35500000000002</v>
+        <v>30.138000000000002</v>
       </c>
       <c r="O19">
-        <v>5565.9650000000001</v>
+        <v>208.696</v>
       </c>
       <c r="P19">
-        <v>4666.6499999999996</v>
+        <v>138.74799999999999</v>
       </c>
       <c r="Q19">
-        <v>-74.207999999999998</v>
+        <v>18.271999999999998</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2161.7289999999998</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="U19">
-        <v>536.70899999999995</v>
+        <v>44.21</v>
       </c>
       <c r="V19">
-        <v>232.81100000000001</v>
+        <v>15.393000000000001</v>
       </c>
       <c r="W19">
-        <v>-96.619</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-98.793999999999997</v>
+        <v>1.125</v>
       </c>
       <c r="Y19">
-        <v>593.78399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-4.7060000000000004</v>
+        <v>7.9889999999999999</v>
       </c>
       <c r="AA19">
-        <v>76.451999999999998</v>
+        <v>-5.7939999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>59.459000000000003</v>
+        <v>-3.431</v>
       </c>
       <c r="D20">
-        <v>665.58199999999999</v>
+        <v>52.478999999999999</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>15.72</v>
       </c>
       <c r="F20">
-        <v>349.82499999999999</v>
+        <v>13.888999999999999</v>
       </c>
       <c r="G20">
-        <v>1234.721</v>
+        <v>85.323999999999998</v>
       </c>
       <c r="H20">
-        <v>7826.018</v>
+        <v>526.98500000000001</v>
       </c>
       <c r="I20">
-        <v>315.55399999999997</v>
+        <v>4.3479999999999999</v>
       </c>
       <c r="J20">
-        <v>3851.0819999999999</v>
+        <v>137.20599999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>817.73199999999997</v>
+        <v>36.969000000000001</v>
       </c>
       <c r="O20">
-        <v>5623.4279999999999</v>
+        <v>215.88499999999999</v>
       </c>
       <c r="P20">
-        <v>4710.03</v>
+        <v>138.10400000000001</v>
       </c>
       <c r="Q20">
-        <v>-200.57599999999999</v>
+        <v>22.936</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2202.59</v>
+        <v>311.10000000000002</v>
       </c>
       <c r="U20">
-        <v>336.13299999999998</v>
+        <v>67.146000000000001</v>
       </c>
       <c r="V20">
-        <v>212.46299999999999</v>
+        <v>18.149000000000001</v>
       </c>
       <c r="W20">
-        <v>-96.349000000000004</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-119.562</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="Y20">
-        <v>623.29499999999996</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>433.96600000000001</v>
+        <v>9.0239999999999991</v>
       </c>
       <c r="AA20">
-        <v>59.459000000000003</v>
+        <v>-3.431</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>41.131999999999998</v>
+        <v>-0.78300000000000003</v>
       </c>
       <c r="D21">
-        <v>686.649</v>
+        <v>58.095999999999997</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>16.199000000000002</v>
       </c>
       <c r="F21">
-        <v>361.18099999999998</v>
+        <v>17.140999999999998</v>
       </c>
       <c r="G21">
-        <v>1242.0229999999999</v>
+        <v>62.061</v>
       </c>
       <c r="H21">
-        <v>7705.6660000000002</v>
+        <v>533.38</v>
       </c>
       <c r="I21">
-        <v>340.36599999999999</v>
+        <v>3.274</v>
       </c>
       <c r="J21">
-        <v>3787.1570000000002</v>
+        <v>136.96</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1464.114</v>
+        <v>39.222000000000001</v>
       </c>
       <c r="O21">
-        <v>6217.0129999999999</v>
+        <v>218.304</v>
       </c>
       <c r="P21">
-        <v>4636.4120000000003</v>
+        <v>137.91499999999999</v>
       </c>
       <c r="Q21">
-        <v>-0.66400000000000003</v>
+        <v>-24.573</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1488.653</v>
+        <v>315.07600000000002</v>
       </c>
       <c r="U21">
-        <v>335.46899999999999</v>
+        <v>42.573</v>
       </c>
       <c r="V21">
-        <v>214.40100000000001</v>
+        <v>15.494</v>
       </c>
       <c r="W21">
-        <v>-98.040999999999997</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-101.41200000000001</v>
+        <v>3.0419999999999998</v>
       </c>
       <c r="Y21">
-        <v>615.92100000000005</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>94.216999999999999</v>
+        <v>-1.002</v>
       </c>
       <c r="AA21">
-        <v>41.131999999999998</v>
+        <v>-0.78300000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>10.731</v>
+        <v>-32.603999999999999</v>
       </c>
       <c r="D22">
-        <v>730.46199999999999</v>
+        <v>61.798000000000002</v>
       </c>
       <c r="E22">
-        <v>291.964</v>
+        <v>17.236999999999998</v>
       </c>
       <c r="F22">
-        <v>378.49400000000003</v>
+        <v>20.082999999999998</v>
       </c>
       <c r="G22">
-        <v>3246.4050000000002</v>
+        <v>139.607</v>
       </c>
       <c r="H22">
-        <v>10356.695</v>
+        <v>680.99699999999996</v>
       </c>
       <c r="I22">
-        <v>49.892000000000003</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="J22">
-        <v>4277.4030000000002</v>
+        <v>145.09100000000001</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1656.354</v>
+        <v>91.423000000000002</v>
       </c>
       <c r="O22">
-        <v>7611.3090000000002</v>
+        <v>392.32400000000001</v>
       </c>
       <c r="P22">
-        <v>6521.02</v>
+        <v>272.45499999999998</v>
       </c>
       <c r="Q22">
-        <v>1893.3689999999999</v>
+        <v>76.694000000000003</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>5042</v>
+        <v>537</v>
       </c>
       <c r="T22">
-        <v>2745.386</v>
+        <v>288.673</v>
       </c>
       <c r="U22">
-        <v>2228.8380000000002</v>
+        <v>119.267</v>
       </c>
       <c r="V22">
-        <v>235.11799999999999</v>
+        <v>18.559000000000001</v>
       </c>
       <c r="W22">
-        <v>-104.96599999999999</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>2192.9499999999998</v>
+        <v>127.949</v>
       </c>
       <c r="Y22">
-        <v>1287.1389999999999</v>
+        <v>94.653000000000006</v>
       </c>
       <c r="Z22">
-        <v>-9.3689999999999998</v>
+        <v>-3.81</v>
       </c>
       <c r="AA22">
-        <v>10.731</v>
+        <v>-32.603999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-31.111000000000001</v>
+        <v>-5.07</v>
       </c>
       <c r="D23">
-        <v>844.15599999999995</v>
+        <v>64.869</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>18.47</v>
       </c>
       <c r="F23">
-        <v>416.476</v>
+        <v>21.524000000000001</v>
       </c>
       <c r="G23">
-        <v>2155.9879999999998</v>
+        <v>104.27</v>
       </c>
       <c r="H23">
-        <v>13495.834999999999</v>
+        <v>669.41600000000005</v>
       </c>
       <c r="I23">
-        <v>475.34300000000002</v>
+        <v>2.7989999999999999</v>
       </c>
       <c r="J23">
-        <v>5809.0529999999999</v>
+        <v>144.76</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="M23">
-        <v>-969.58500000000004</v>
+        <v>-0.56899999999999995</v>
       </c>
       <c r="N23">
-        <v>1580.1949999999999</v>
+        <v>62.588999999999999</v>
       </c>
       <c r="O23">
-        <v>8676.73</v>
+        <v>362.51600000000002</v>
       </c>
       <c r="P23">
-        <v>7181.7910000000002</v>
+        <v>241.886</v>
       </c>
       <c r="Q23">
-        <v>-2070.7890000000002</v>
+        <v>-38.142000000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4819.1049999999996</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="U23">
-        <v>633.75800000000004</v>
+        <v>81.125</v>
       </c>
       <c r="V23">
-        <v>104.834</v>
+        <v>12.791</v>
       </c>
       <c r="W23">
-        <v>-124.836</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-376.93200000000002</v>
+        <v>-15.484999999999999</v>
       </c>
       <c r="Y23">
-        <v>689.06600000000003</v>
+        <v>94.191000000000003</v>
       </c>
       <c r="Z23">
-        <v>3.419</v>
+        <v>-11.478</v>
       </c>
       <c r="AA23">
-        <v>-31.111000000000001</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>44.710999999999999</v>
+        <v>-5.27</v>
       </c>
       <c r="D24">
-        <v>887.91</v>
+        <v>68.548000000000002</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>23.347000000000001</v>
       </c>
       <c r="F24">
-        <v>430.94299999999998</v>
+        <v>22.984999999999999</v>
       </c>
       <c r="G24">
-        <v>2092.1010000000001</v>
+        <v>106.21299999999999</v>
       </c>
       <c r="H24">
-        <v>13269.045</v>
+        <v>683.173</v>
       </c>
       <c r="I24">
-        <v>498.21199999999999</v>
+        <v>3.411</v>
       </c>
       <c r="J24">
-        <v>5699.3109999999997</v>
+        <v>144.423</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1559.779</v>
+        <v>69.38</v>
       </c>
       <c r="O24">
-        <v>8563.58</v>
+        <v>366.04599999999999</v>
       </c>
       <c r="P24">
-        <v>7001.2250000000004</v>
+        <v>241.2</v>
       </c>
       <c r="Q24">
-        <v>-150.881</v>
+        <v>-3.8250000000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4705.4650000000001</v>
+        <v>317.12700000000001</v>
       </c>
       <c r="U24">
-        <v>483.16</v>
+        <v>77.3</v>
       </c>
       <c r="V24">
-        <v>278.26400000000001</v>
+        <v>16.106999999999999</v>
       </c>
       <c r="W24">
-        <v>-121.858</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-169.36099999999999</v>
+        <v>5.3760000000000003</v>
       </c>
       <c r="Y24">
-        <v>697.97199999999998</v>
+        <v>93.715000000000003</v>
       </c>
       <c r="Z24">
-        <v>8.7639999999999993</v>
+        <v>10.446</v>
       </c>
       <c r="AA24">
-        <v>44.710999999999999</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-5.1680000000000001</v>
       </c>
       <c r="D25">
-        <v>914.57600000000002</v>
+        <v>73.725999999999999</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>24.129000000000001</v>
       </c>
       <c r="F25">
-        <v>444.274</v>
+        <v>24.588999999999999</v>
       </c>
       <c r="G25">
-        <v>1660.0409999999999</v>
+        <v>114.758</v>
       </c>
       <c r="H25">
-        <v>13097.557000000001</v>
+        <v>730.62</v>
       </c>
       <c r="I25">
-        <v>534.60199999999998</v>
+        <v>2.42</v>
       </c>
       <c r="J25">
-        <v>5635.0910000000003</v>
+        <v>144.078</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1495.566</v>
+        <v>107.161</v>
       </c>
       <c r="O25">
-        <v>8473.8469999999998</v>
+        <v>403.036</v>
       </c>
       <c r="P25">
-        <v>6925.31</v>
+        <v>280.49</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>7.3390000000000004</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4623.71</v>
+        <v>327.584</v>
       </c>
       <c r="U25">
-        <v>987.91499999999996</v>
+        <v>84.638999999999996</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>20.655000000000001</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>47.460999999999999</v>
       </c>
       <c r="Y25">
-        <v>679.11400000000003</v>
+        <v>93.22</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-10.798</v>
       </c>
       <c r="AA25">
-        <v>51.45</v>
+        <v>-5.1680000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>61.75</v>
+        <v>9.1110000000000007</v>
       </c>
       <c r="D26">
-        <v>965.34699999999998</v>
+        <v>79.772000000000006</v>
       </c>
       <c r="E26">
-        <v>396.245</v>
+        <v>26.864000000000001</v>
       </c>
       <c r="F26">
-        <v>499.42599999999999</v>
+        <v>29.437999999999999</v>
       </c>
       <c r="G26">
-        <v>1464.117</v>
+        <v>117.43</v>
       </c>
       <c r="H26">
-        <v>12608.370999999999</v>
+        <v>771.83199999999999</v>
       </c>
       <c r="I26">
-        <v>60.210999999999999</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="J26">
-        <v>5179.857</v>
+        <v>182.99600000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1028.6949999999999</v>
+        <v>78.352999999999994</v>
       </c>
       <c r="O26">
-        <v>8242.5419999999995</v>
+        <v>416.80399999999997</v>
       </c>
       <c r="P26">
-        <v>6759.5730000000003</v>
+        <v>279.84500000000003</v>
       </c>
       <c r="Q26">
-        <v>-250.29400000000001</v>
+        <v>-2.0760000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>5993</v>
+        <v>616</v>
       </c>
       <c r="T26">
-        <v>4365.8289999999997</v>
+        <v>355.02800000000002</v>
       </c>
       <c r="U26">
-        <v>748.476</v>
+        <v>82.563000000000002</v>
       </c>
       <c r="V26">
-        <v>300.61799999999999</v>
+        <v>25.859000000000002</v>
       </c>
       <c r="W26">
-        <v>-125.312</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-158.20099999999999</v>
+        <v>8.7550000000000008</v>
       </c>
       <c r="Y26">
-        <v>1410.742</v>
+        <v>92.721999999999994</v>
       </c>
       <c r="Z26">
-        <v>0.77900000000000003</v>
+        <v>8.3249999999999993</v>
       </c>
       <c r="AA26">
-        <v>61.75</v>
+        <v>9.1110000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>42.061999999999998</v>
+        <v>-4.4560000000000004</v>
       </c>
       <c r="D27">
-        <v>949.52499999999998</v>
+        <v>85.108999999999995</v>
       </c>
       <c r="E27">
-        <v>429.99</v>
+        <v>27.773</v>
       </c>
       <c r="F27">
-        <v>480.56400000000002</v>
+        <v>32.344000000000001</v>
       </c>
       <c r="G27">
-        <v>5559.2749999999996</v>
+        <v>365</v>
       </c>
       <c r="H27">
-        <v>17184.684000000001</v>
+        <v>1073.682</v>
       </c>
       <c r="I27">
-        <v>515.95899999999995</v>
+        <v>3.2330000000000001</v>
       </c>
       <c r="J27">
-        <v>8333.0210000000006</v>
+        <v>403.01400000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-38.106000000000002</v>
+        <v>-0.96199999999999997</v>
       </c>
       <c r="N27">
-        <v>1020.068</v>
+        <v>93.275000000000006</v>
       </c>
       <c r="O27">
-        <v>10666.844999999999</v>
+        <v>648.55899999999997</v>
       </c>
       <c r="P27">
-        <v>9181.3690000000006</v>
+        <v>499.49</v>
       </c>
       <c r="Q27">
-        <v>4169.799</v>
+        <v>245.09700000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6517.8389999999999</v>
+        <v>425.12299999999999</v>
       </c>
       <c r="U27">
-        <v>4923.259</v>
+        <v>327.66000000000003</v>
       </c>
       <c r="V27">
-        <v>247.37100000000001</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="W27">
-        <v>-148.083</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>4225.2460000000001</v>
+        <v>273.25299999999999</v>
       </c>
       <c r="Y27">
-        <v>668.34699999999998</v>
+        <v>92.147999999999996</v>
       </c>
       <c r="Z27">
-        <v>-7.1040000000000001</v>
+        <v>9.5150000000000006</v>
       </c>
       <c r="AA27">
-        <v>42.061999999999998</v>
+        <v>-4.4560000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>45.805</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="D28">
-        <v>1040.6210000000001</v>
+        <v>91.837000000000003</v>
       </c>
       <c r="E28">
-        <v>545.73400000000004</v>
+        <v>28.14</v>
       </c>
       <c r="F28">
-        <v>518.41800000000001</v>
+        <v>36.228000000000002</v>
       </c>
       <c r="G28">
-        <v>1845.3820000000001</v>
+        <v>272.33699999999999</v>
       </c>
       <c r="H28">
-        <v>17473.937000000002</v>
+        <v>1175.451</v>
       </c>
       <c r="I28">
-        <v>612.59299999999996</v>
+        <v>4.22</v>
       </c>
       <c r="J28">
-        <v>8463.4950000000008</v>
+        <v>447.09100000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1091.4349999999999</v>
+        <v>136.71600000000001</v>
       </c>
       <c r="O28">
-        <v>10950.273999999999</v>
+        <v>732.77700000000004</v>
       </c>
       <c r="P28">
-        <v>9289.1190000000006</v>
+        <v>543.13300000000004</v>
       </c>
       <c r="Q28">
-        <v>-3839.82</v>
+        <v>-93.061999999999998</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6523.6629999999996</v>
+        <v>442.67399999999998</v>
       </c>
       <c r="U28">
-        <v>1063.777</v>
+        <v>234.59800000000001</v>
       </c>
       <c r="V28">
-        <v>306.47300000000001</v>
+        <v>37.862000000000002</v>
       </c>
       <c r="W28">
-        <v>-156.29</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-212.89699999999999</v>
+        <v>50.518999999999998</v>
       </c>
       <c r="Y28">
-        <v>679.66499999999996</v>
+        <v>91.557000000000002</v>
       </c>
       <c r="Z28">
-        <v>10.303000000000001</v>
+        <v>-24.445</v>
       </c>
       <c r="AA28">
-        <v>45.805</v>
+        <v>1.2170000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>79.900000000000006</v>
+        <v>4.1239999999999997</v>
       </c>
       <c r="D29">
-        <v>1152.261</v>
+        <v>103.782</v>
       </c>
       <c r="E29">
-        <v>597.24199999999996</v>
+        <v>49.176000000000002</v>
       </c>
       <c r="F29">
-        <v>569.90099999999995</v>
+        <v>40.890999999999998</v>
       </c>
       <c r="G29">
-        <v>2414.2359999999999</v>
+        <v>419.11700000000002</v>
       </c>
       <c r="H29">
-        <v>18308.495999999999</v>
+        <v>2130.5659999999998</v>
       </c>
       <c r="I29">
-        <v>657.22900000000004</v>
+        <v>18.992000000000001</v>
       </c>
       <c r="J29">
-        <v>9190.3700000000008</v>
+        <v>957.18200000000002</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1156.624</v>
+        <v>198.01900000000001</v>
       </c>
       <c r="O29">
-        <v>11766.279</v>
+        <v>1315.8889999999999</v>
       </c>
       <c r="P29">
-        <v>10025.629999999999</v>
+        <v>1058.6099999999999</v>
       </c>
       <c r="Q29">
-        <v>532.96900000000005</v>
+        <v>108.854</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>6542.2169999999996</v>
+        <v>814.67700000000002</v>
       </c>
       <c r="U29">
-        <v>1599.9880000000001</v>
+        <v>343.452</v>
       </c>
       <c r="V29">
-        <v>390.51</v>
+        <v>48.427</v>
       </c>
       <c r="W29">
-        <v>-159.541</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>496.625</v>
+        <v>783.24</v>
       </c>
       <c r="Y29">
-        <v>690.60400000000004</v>
+        <v>94.501000000000005</v>
       </c>
       <c r="Z29">
-        <v>-28.257999999999999</v>
+        <v>-3.0249999999999999</v>
       </c>
       <c r="AA29">
-        <v>79.900000000000006</v>
+        <v>4.1239999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>65.215000000000003</v>
+        <v>-6.0730000000000004</v>
       </c>
       <c r="D30">
-        <v>1226.021</v>
+        <v>138.714</v>
       </c>
       <c r="E30">
-        <v>576.31299999999999</v>
+        <v>60.088999999999999</v>
       </c>
       <c r="F30">
-        <v>606.39599999999996</v>
+        <v>46.234000000000002</v>
       </c>
       <c r="G30">
-        <v>2220.857</v>
+        <v>363.46</v>
       </c>
       <c r="H30">
-        <v>18691.456999999999</v>
+        <v>2181.8679999999999</v>
       </c>
       <c r="I30">
-        <v>101.744</v>
+        <v>14.816000000000001</v>
       </c>
       <c r="J30">
-        <v>8316.9670000000006</v>
+        <v>992.15099999999995</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1242.7339999999999</v>
+        <v>191.46199999999999</v>
       </c>
       <c r="O30">
-        <v>11841.666999999999</v>
+        <v>1367.4359999999999</v>
       </c>
       <c r="P30">
-        <v>10080.419</v>
+        <v>1106.144</v>
       </c>
       <c r="Q30">
-        <v>-185.494</v>
+        <v>-52.819000000000003</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>7273</v>
+        <v>911</v>
       </c>
       <c r="T30">
-        <v>6849.79</v>
+        <v>814.43200000000002</v>
       </c>
       <c r="U30">
-        <v>1412.5170000000001</v>
+        <v>290.63299999999998</v>
       </c>
       <c r="V30">
-        <v>494.87900000000002</v>
+        <v>13.881</v>
       </c>
       <c r="W30">
-        <v>-157.583</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>98.885999999999996</v>
+        <v>38.000999999999998</v>
       </c>
       <c r="Y30">
-        <v>1620.2560000000001</v>
+        <v>93.603999999999999</v>
       </c>
       <c r="Z30">
-        <v>13.554</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="AA30">
-        <v>65.215000000000003</v>
+        <v>-6.0730000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>62.893999999999998</v>
+        <v>3.7970000000000002</v>
       </c>
       <c r="D31">
-        <v>1215.877</v>
+        <v>158.21799999999999</v>
       </c>
       <c r="E31">
-        <v>655.048</v>
+        <v>59.155999999999999</v>
       </c>
       <c r="F31">
-        <v>593.447</v>
+        <v>63.709000000000003</v>
       </c>
       <c r="G31">
-        <v>2916.451</v>
+        <v>336.51299999999998</v>
       </c>
       <c r="H31">
-        <v>19941.928</v>
+        <v>2286.7869999999998</v>
       </c>
       <c r="I31">
-        <v>686.61199999999997</v>
+        <v>17.356999999999999</v>
       </c>
       <c r="J31">
-        <v>10216.813</v>
+        <v>999.57100000000003</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-62.386000000000003</v>
+        <v>-4.0579999999999998</v>
       </c>
       <c r="N31">
-        <v>1246.4749999999999</v>
+        <v>244.899</v>
       </c>
       <c r="O31">
-        <v>12801.377</v>
+        <v>1443.6569999999999</v>
       </c>
       <c r="P31">
-        <v>11103.831</v>
+        <v>1162.174</v>
       </c>
       <c r="Q31">
-        <v>617.90899999999999</v>
+        <v>-29.798999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7140.5510000000004</v>
+        <v>843.13</v>
       </c>
       <c r="U31">
-        <v>2023.808</v>
+        <v>260.834</v>
       </c>
       <c r="V31">
-        <v>300.90699999999998</v>
+        <v>62.984000000000002</v>
       </c>
       <c r="W31">
-        <v>-186.999</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>674.02499999999998</v>
+        <v>44.597999999999999</v>
       </c>
       <c r="Y31">
-        <v>729.93299999999999</v>
+        <v>98.405000000000001</v>
       </c>
       <c r="Z31">
-        <v>-0.497</v>
+        <v>28.917999999999999</v>
       </c>
       <c r="AA31">
-        <v>62.893999999999998</v>
+        <v>3.7970000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>67.617999999999995</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D32">
-        <v>1293.2619999999999</v>
+        <v>172.04400000000001</v>
       </c>
       <c r="E32">
-        <v>626.22</v>
+        <v>63.104999999999997</v>
       </c>
       <c r="F32">
-        <v>641.46100000000001</v>
+        <v>70.004999999999995</v>
       </c>
       <c r="G32">
-        <v>1832.626</v>
+        <v>228.74600000000001</v>
       </c>
       <c r="H32">
-        <v>20070.288</v>
+        <v>2330.982</v>
       </c>
       <c r="I32">
-        <v>710.58399999999995</v>
+        <v>17.84</v>
       </c>
       <c r="J32">
-        <v>10366.272000000001</v>
+        <v>1021.294</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1433.62</v>
+        <v>235.57300000000001</v>
       </c>
       <c r="O32">
-        <v>13145.761</v>
+        <v>1452.309</v>
       </c>
       <c r="P32">
-        <v>11390.005999999999</v>
+        <v>1192.0319999999999</v>
       </c>
       <c r="Q32">
-        <v>-1066.3710000000001</v>
+        <v>-109.70699999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>6924.527</v>
+        <v>878.673</v>
       </c>
       <c r="U32">
-        <v>966.30799999999999</v>
+        <v>151.12700000000001</v>
       </c>
       <c r="V32">
-        <v>538.72799999999995</v>
+        <v>64.957999999999998</v>
       </c>
       <c r="W32">
-        <v>-181.76</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-206.28200000000001</v>
+        <v>41.923999999999999</v>
       </c>
       <c r="Y32">
-        <v>712.41899999999998</v>
+        <v>97.361000000000004</v>
       </c>
       <c r="Z32">
-        <v>13.24</v>
+        <v>-107.849</v>
       </c>
       <c r="AA32">
-        <v>67.617999999999995</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>124.825</v>
+        <v>5.556</v>
       </c>
       <c r="D33">
-        <v>1287.0450000000001</v>
+        <v>183.73500000000001</v>
       </c>
       <c r="E33">
-        <v>671.94399999999996</v>
+        <v>62.375999999999998</v>
       </c>
       <c r="F33">
-        <v>626.73599999999999</v>
+        <v>73.83</v>
       </c>
       <c r="G33">
-        <v>1791.5719999999999</v>
+        <v>240.762</v>
       </c>
       <c r="H33">
-        <v>20288.071</v>
+        <v>2291.9349999999999</v>
       </c>
       <c r="I33">
-        <v>739.11699999999996</v>
+        <v>11.797000000000001</v>
       </c>
       <c r="J33">
-        <v>9646.259</v>
+        <v>1023.032</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1461.319</v>
+        <v>239.07599999999999</v>
       </c>
       <c r="O33">
-        <v>13127.897999999999</v>
+        <v>1454.6849999999999</v>
       </c>
       <c r="P33">
-        <v>11354.583000000001</v>
+        <v>1195.8489999999999</v>
       </c>
       <c r="Q33">
-        <v>-103.83499999999999</v>
+        <v>9.5579999999999998</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7160.1729999999998</v>
+        <v>837.25</v>
       </c>
       <c r="U33">
-        <v>870.48599999999999</v>
+        <v>160.685</v>
       </c>
       <c r="V33">
-        <v>417.16199999999998</v>
+        <v>63.320999999999998</v>
       </c>
       <c r="W33">
-        <v>-185.983</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>104.06399999999999</v>
+        <v>26.428000000000001</v>
       </c>
       <c r="Y33">
-        <v>1386.26</v>
+        <v>95.094999999999999</v>
       </c>
       <c r="Z33">
-        <v>6.452</v>
+        <v>2.7839999999999998</v>
       </c>
       <c r="AA33">
-        <v>124.825</v>
+        <v>5.556</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>110.02200000000001</v>
+        <v>97.863</v>
       </c>
       <c r="D34">
-        <v>1306.0730000000001</v>
+        <v>190.68299999999999</v>
       </c>
       <c r="E34">
-        <v>639.89700000000005</v>
+        <v>66.028999999999996</v>
       </c>
       <c r="F34">
-        <v>635.13800000000003</v>
+        <v>82.337000000000003</v>
       </c>
       <c r="G34">
-        <v>1511.1420000000001</v>
+        <v>337.399</v>
       </c>
       <c r="H34">
-        <v>20244.637999999999</v>
+        <v>2434.7359999999999</v>
       </c>
       <c r="I34">
-        <v>96.98</v>
+        <v>18.324999999999999</v>
       </c>
       <c r="J34">
-        <v>9439.4480000000003</v>
+        <v>1005.587</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1515.0709999999999</v>
+        <v>289.99299999999999</v>
       </c>
       <c r="O34">
-        <v>13025.359</v>
+        <v>1518.075</v>
       </c>
       <c r="P34">
-        <v>11332.496999999999</v>
+        <v>1214.5920000000001</v>
       </c>
       <c r="Q34">
-        <v>-270.8</v>
+        <v>59.521999999999998</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>7903</v>
+        <v>1115</v>
       </c>
       <c r="T34">
-        <v>7219.2790000000005</v>
+        <v>916.66099999999994</v>
       </c>
       <c r="U34">
-        <v>606.16600000000005</v>
+        <v>220.20699999999999</v>
       </c>
       <c r="V34">
-        <v>558.62900000000002</v>
+        <v>76.295000000000002</v>
       </c>
       <c r="W34">
-        <v>-183.858</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-100.895</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="Y34">
-        <v>1441.077</v>
+        <v>133.03100000000001</v>
       </c>
       <c r="Z34">
-        <v>1.4019999999999999</v>
+        <v>81.582999999999998</v>
       </c>
       <c r="AA34">
-        <v>110.02200000000001</v>
+        <v>97.863</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>118.078</v>
+        <v>15.457000000000001</v>
       </c>
       <c r="D35">
-        <v>1363.2180000000001</v>
+        <v>199.23099999999999</v>
       </c>
       <c r="E35">
-        <v>703.83500000000004</v>
+        <v>60.021999999999998</v>
       </c>
       <c r="F35">
-        <v>681.18799999999999</v>
+        <v>87.426000000000002</v>
       </c>
       <c r="G35">
-        <v>2611.9380000000001</v>
+        <v>327.36500000000001</v>
       </c>
       <c r="H35">
-        <v>22491.091</v>
+        <v>2416.989</v>
       </c>
       <c r="I35">
-        <v>746.77099999999996</v>
+        <v>15.89</v>
       </c>
       <c r="J35">
-        <v>9354.134</v>
+        <v>993.399</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-49.491999999999997</v>
+        <v>-8.1790000000000003</v>
       </c>
       <c r="N35">
-        <v>1685.3510000000001</v>
+        <v>256.32400000000001</v>
       </c>
       <c r="O35">
-        <v>14066.303</v>
+        <v>1483.7929999999999</v>
       </c>
       <c r="P35">
-        <v>12398.36</v>
+        <v>1202.248</v>
       </c>
       <c r="Q35">
-        <v>1027.9110000000001</v>
+        <v>1.8420000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>8424.7880000000005</v>
+        <v>933.19600000000003</v>
       </c>
       <c r="U35">
-        <v>1633.8440000000001</v>
+        <v>222.04900000000001</v>
       </c>
       <c r="V35">
-        <v>421.14100000000002</v>
+        <v>86.703999999999994</v>
       </c>
       <c r="W35">
-        <v>-204.60300000000001</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>986.93200000000002</v>
+        <v>-3.625</v>
       </c>
       <c r="Y35">
-        <v>2482.7559999999999</v>
+        <v>131.864</v>
       </c>
       <c r="Z35">
-        <v>-8.7789999999999999</v>
+        <v>23.62</v>
       </c>
       <c r="AA35">
-        <v>118.078</v>
+        <v>15.457000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>143.52699999999999</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="D36">
-        <v>1356.4490000000001</v>
+        <v>213.16800000000001</v>
       </c>
       <c r="E36">
-        <v>752.68</v>
+        <v>67.311999999999998</v>
       </c>
       <c r="F36">
-        <v>658.27</v>
+        <v>94.634</v>
       </c>
       <c r="G36">
-        <v>2971.2820000000002</v>
+        <v>513.60599999999999</v>
       </c>
       <c r="H36">
-        <v>22886.505000000001</v>
+        <v>2843.3649999999998</v>
       </c>
       <c r="I36">
-        <v>768.67</v>
+        <v>16.565000000000001</v>
       </c>
       <c r="J36">
-        <v>9227.018</v>
+        <v>1265.768</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1884.405</v>
+        <v>252.63499999999999</v>
       </c>
       <c r="O36">
-        <v>14137.276</v>
+        <v>1750.7429999999999</v>
       </c>
       <c r="P36">
-        <v>12267.772000000001</v>
+        <v>1462.5640000000001</v>
       </c>
       <c r="Q36">
-        <v>-18.222999999999999</v>
+        <v>183.16800000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8749.2289999999994</v>
+        <v>1092.6220000000001</v>
       </c>
       <c r="U36">
-        <v>1613.529</v>
+        <v>405.21699999999998</v>
       </c>
       <c r="V36">
-        <v>542.923</v>
+        <v>78.739000000000004</v>
       </c>
       <c r="W36">
-        <v>-208.44900000000001</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-40.159999999999997</v>
+        <v>301.34100000000001</v>
       </c>
       <c r="Y36">
-        <v>2465.203</v>
+        <v>138.53200000000001</v>
       </c>
       <c r="Z36">
-        <v>-3.0630000000000002</v>
+        <v>-136.15700000000001</v>
       </c>
       <c r="AA36">
-        <v>143.52699999999999</v>
+        <v>17.440000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>120.85</v>
+        <v>18.812000000000001</v>
       </c>
       <c r="D37">
-        <v>1369.5050000000001</v>
+        <v>227.55799999999999</v>
       </c>
       <c r="E37">
-        <v>746.57100000000003</v>
+        <v>67.588999999999999</v>
       </c>
       <c r="F37">
-        <v>665.16600000000005</v>
+        <v>101.551</v>
       </c>
       <c r="G37">
-        <v>2833.69</v>
+        <v>387.86</v>
       </c>
       <c r="H37">
-        <v>22842.332999999999</v>
+        <v>2962.578</v>
       </c>
       <c r="I37">
-        <v>755.15</v>
+        <v>18.222000000000001</v>
       </c>
       <c r="J37">
-        <v>9050.5239999999994</v>
+        <v>1292.53</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1836.4829999999999</v>
+        <v>280.161</v>
       </c>
       <c r="O37">
-        <v>14081.302</v>
+        <v>1828.144</v>
       </c>
       <c r="P37">
-        <v>12259.682000000001</v>
+        <v>1506.1569999999999</v>
       </c>
       <c r="Q37">
-        <v>-217.15899999999999</v>
+        <v>-122.07</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>8761.0310000000009</v>
+        <v>1134.434</v>
       </c>
       <c r="U37">
-        <v>1402.4</v>
+        <v>283.14699999999999</v>
       </c>
       <c r="V37">
-        <v>498.99400000000003</v>
+        <v>107.539</v>
       </c>
       <c r="W37">
-        <v>-212.75200000000001</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-126.163</v>
+        <v>28.803999999999998</v>
       </c>
       <c r="Y37">
-        <v>2635.3829999999998</v>
+        <v>154.179</v>
       </c>
       <c r="Z37">
-        <v>-2.9049999999999998</v>
+        <v>-146.04499999999999</v>
       </c>
       <c r="AA37">
-        <v>120.85</v>
+        <v>18.812000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>124.995</v>
+        <v>17.722000000000001</v>
       </c>
       <c r="D38">
-        <v>1394.0039999999999</v>
+        <v>242.55199999999999</v>
       </c>
       <c r="E38">
-        <v>699.16700000000003</v>
+        <v>64.766999999999996</v>
       </c>
       <c r="F38">
-        <v>668.36800000000005</v>
+        <v>115.47799999999999</v>
       </c>
       <c r="G38">
-        <v>2862.2539999999999</v>
+        <v>479.37900000000002</v>
       </c>
       <c r="H38">
-        <v>23965.615000000002</v>
+        <v>3038.15</v>
       </c>
       <c r="I38">
-        <v>52.231999999999999</v>
+        <v>14.874000000000001</v>
       </c>
       <c r="J38">
-        <v>9599.107</v>
+        <v>1273.5239999999999</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2157.8629999999998</v>
+        <v>315.459</v>
       </c>
       <c r="O38">
-        <v>15125.233</v>
+        <v>1855.6669999999999</v>
       </c>
       <c r="P38">
-        <v>13287.316999999999</v>
+        <v>1493.4649999999999</v>
       </c>
       <c r="Q38">
-        <v>466.48</v>
+        <v>62.908999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>8378</v>
+        <v>1301</v>
       </c>
       <c r="T38">
-        <v>8840.3819999999996</v>
+        <v>1182.4829999999999</v>
       </c>
       <c r="U38">
-        <v>1869.577</v>
+        <v>346.05599999999998</v>
       </c>
       <c r="V38">
-        <v>529.66999999999996</v>
+        <v>82.51</v>
       </c>
       <c r="W38">
-        <v>-210.36</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>381.47300000000001</v>
+        <v>-2.9220000000000002</v>
       </c>
       <c r="Y38">
-        <v>2746.538</v>
+        <v>154.577</v>
       </c>
       <c r="Z38">
-        <v>-5.7759999999999998</v>
+        <v>85.924000000000007</v>
       </c>
       <c r="AA38">
-        <v>124.995</v>
+        <v>17.722000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>118.792</v>
+        <v>14.199</v>
       </c>
       <c r="D39">
-        <v>1444.5419999999999</v>
+        <v>248.649</v>
       </c>
       <c r="E39">
-        <v>687.15300000000002</v>
+        <v>69.721999999999994</v>
       </c>
       <c r="F39">
-        <v>708.26</v>
+        <v>115.599</v>
       </c>
       <c r="G39">
-        <v>2294.2759999999998</v>
+        <v>1173.038</v>
       </c>
       <c r="H39">
-        <v>23590.698</v>
+        <v>3667.768</v>
       </c>
       <c r="I39">
-        <v>717.57399999999996</v>
+        <v>23.073</v>
       </c>
       <c r="J39">
-        <v>9722.94</v>
+        <v>1901.1569999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-381.18900000000002</v>
+        <v>-115.89400000000001</v>
       </c>
       <c r="N39">
-        <v>1838.473</v>
+        <v>316.10700000000003</v>
       </c>
       <c r="O39">
-        <v>14921.404</v>
+        <v>2480.2809999999999</v>
       </c>
       <c r="P39">
-        <v>13079.581</v>
+        <v>2116.0450000000001</v>
       </c>
       <c r="Q39">
-        <v>-700.10199999999998</v>
+        <v>693.24599999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8669.2939999999999</v>
+        <v>1187.4870000000001</v>
       </c>
       <c r="U39">
-        <v>1171.3389999999999</v>
+        <v>1039.3019999999999</v>
       </c>
       <c r="V39">
-        <v>516.83000000000004</v>
+        <v>99.811999999999998</v>
       </c>
       <c r="W39">
-        <v>-233.47900000000001</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-237.10400000000001</v>
+        <v>629.79600000000005</v>
       </c>
       <c r="Y39">
-        <v>2751.9090000000001</v>
+        <v>152.173</v>
       </c>
       <c r="Z39">
-        <v>-38.94</v>
+        <v>112.285</v>
       </c>
       <c r="AA39">
-        <v>118.792</v>
+        <v>14.199</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>133.304</v>
+        <v>-2.274</v>
       </c>
       <c r="D40">
-        <v>1429.3679999999999</v>
+        <v>296.09399999999999</v>
       </c>
       <c r="E40">
-        <v>691.58900000000006</v>
+        <v>106.255</v>
       </c>
       <c r="F40">
-        <v>690.024</v>
+        <v>133.512</v>
       </c>
       <c r="G40">
-        <v>5959.348</v>
+        <v>682.12400000000002</v>
       </c>
       <c r="H40">
-        <v>27792.63</v>
+        <v>4282.2079999999996</v>
       </c>
       <c r="I40">
-        <v>745.51700000000005</v>
+        <v>18.366</v>
       </c>
       <c r="J40">
-        <v>10022.682000000001</v>
+        <v>1822.12</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3855.7710000000002</v>
+        <v>299.56900000000002</v>
       </c>
       <c r="O40">
-        <v>17404.371999999999</v>
+        <v>2532.011</v>
       </c>
       <c r="P40">
-        <v>15470.082</v>
+        <v>2059.3879999999999</v>
       </c>
       <c r="Q40">
-        <v>3620.63</v>
+        <v>-527.96</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>10388.258</v>
+        <v>1750.1969999999999</v>
       </c>
       <c r="U40">
-        <v>4785.05</v>
+        <v>511.34199999999998</v>
       </c>
       <c r="V40">
-        <v>574.68600000000004</v>
+        <v>56.905999999999999</v>
       </c>
       <c r="W40">
-        <v>-236.00800000000001</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>3562.9769999999999</v>
+        <v>-252.233</v>
       </c>
       <c r="Y40">
-        <v>2901.7939999999999</v>
+        <v>207.30500000000001</v>
       </c>
       <c r="Z40">
-        <v>-1.341</v>
+        <v>-64.986999999999995</v>
       </c>
       <c r="AA40">
-        <v>133.304</v>
+        <v>-2.274</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>66.686999999999998</v>
+        <v>11.196</v>
       </c>
       <c r="D41">
-        <v>1517.2929999999999</v>
+        <v>330.34699999999998</v>
       </c>
       <c r="E41">
-        <v>705.50900000000001</v>
+        <v>115.616</v>
       </c>
       <c r="F41">
-        <v>749.31399999999996</v>
+        <v>144.87100000000001</v>
       </c>
       <c r="G41">
-        <v>4029.8420000000001</v>
+        <v>568.83199999999999</v>
       </c>
       <c r="H41">
-        <v>26436.714</v>
+        <v>4480.8909999999996</v>
       </c>
       <c r="I41">
-        <v>822.06200000000001</v>
+        <v>11.646000000000001</v>
       </c>
       <c r="J41">
-        <v>8402.5120000000006</v>
+        <v>1839.5219999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3796.183</v>
+        <v>311.02499999999998</v>
       </c>
       <c r="O41">
-        <v>15880.748</v>
+        <v>2626.9180000000001</v>
       </c>
       <c r="P41">
-        <v>13742.019</v>
+        <v>2131.5549999999998</v>
       </c>
       <c r="Q41">
-        <v>-2141.0529999999999</v>
+        <v>-122.193</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>10555.966</v>
+        <v>1853.973</v>
       </c>
       <c r="U41">
-        <v>2645.0450000000001</v>
+        <v>389.149</v>
       </c>
       <c r="V41">
-        <v>532.16200000000003</v>
+        <v>113.26300000000001</v>
       </c>
       <c r="W41">
-        <v>-240.69</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-2088.5169999999998</v>
+        <v>18.111999999999998</v>
       </c>
       <c r="Y41">
-        <v>2960.44</v>
+        <v>261.92899999999997</v>
       </c>
       <c r="Z41">
-        <v>3.9689999999999999</v>
+        <v>-115.554</v>
       </c>
       <c r="AA41">
-        <v>66.686999999999998</v>
+        <v>11.196</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>13.76</v>
+      </c>
+      <c r="D42">
+        <v>345.24400000000003</v>
+      </c>
+      <c r="E42">
+        <v>116.358</v>
+      </c>
+      <c r="F42">
+        <v>151.685</v>
+      </c>
+      <c r="G42">
+        <v>630.85599999999999</v>
+      </c>
+      <c r="H42">
+        <v>4448.009</v>
+      </c>
+      <c r="I42">
+        <v>12.585000000000001</v>
+      </c>
+      <c r="J42">
+        <v>1766.674</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>318.11500000000001</v>
+      </c>
+      <c r="O42">
+        <v>2567.4940000000001</v>
+      </c>
+      <c r="P42">
+        <v>2048.585</v>
+      </c>
+      <c r="Q42">
+        <v>53.692</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1921</v>
+      </c>
+      <c r="T42">
+        <v>1880.5150000000001</v>
+      </c>
+      <c r="U42">
+        <v>442.84100000000001</v>
+      </c>
+      <c r="V42">
+        <v>122.89100000000001</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-85.989000000000004</v>
+      </c>
+      <c r="Y42">
+        <v>253.94499999999999</v>
+      </c>
+      <c r="Z42">
+        <v>176.172</v>
+      </c>
+      <c r="AA42">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>25.145</v>
+      </c>
+      <c r="D43">
+        <v>363.029</v>
+      </c>
+      <c r="E43">
+        <v>114.20699999999999</v>
+      </c>
+      <c r="F43">
+        <v>168.453</v>
+      </c>
+      <c r="G43">
+        <v>544.95000000000005</v>
+      </c>
+      <c r="H43">
+        <v>4652.5129999999999</v>
+      </c>
+      <c r="I43">
+        <v>17.216000000000001</v>
+      </c>
+      <c r="J43">
+        <v>1798.942</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-12.07</v>
+      </c>
+      <c r="N43">
+        <v>343.274</v>
+      </c>
+      <c r="O43">
+        <v>2665.116</v>
+      </c>
+      <c r="P43">
+        <v>2124.44</v>
+      </c>
+      <c r="Q43">
+        <v>-138.375</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1987.3969999999999</v>
+      </c>
+      <c r="U43">
+        <v>304.46600000000001</v>
+      </c>
+      <c r="V43">
+        <v>117.77</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>26.126000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>296.91300000000001</v>
+      </c>
+      <c r="Z43">
+        <v>-2.1850000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>25.145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>140.316</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>554.84199999999998</v>
+      </c>
+      <c r="H44">
+        <v>4969.1909999999998</v>
+      </c>
+      <c r="I44">
+        <v>21.202000000000002</v>
+      </c>
+      <c r="J44">
+        <v>1639.5329999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>620.45100000000002</v>
+      </c>
+      <c r="O44">
+        <v>2835.942</v>
+      </c>
+      <c r="P44">
+        <v>2257.8609999999999</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2133.2489999999998</v>
+      </c>
+      <c r="U44">
+        <v>297.87200000000001</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>337.274</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>20.318999999999999</v>
+      </c>
+      <c r="D45">
+        <v>408.20800000000003</v>
+      </c>
+      <c r="E45">
+        <v>144.185</v>
+      </c>
+      <c r="F45">
+        <v>188.48400000000001</v>
+      </c>
+      <c r="G45">
+        <v>630.05200000000002</v>
+      </c>
+      <c r="H45">
+        <v>5730.6869999999999</v>
+      </c>
+      <c r="I45">
+        <v>21.521000000000001</v>
+      </c>
+      <c r="J45">
+        <v>2602.047</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>656.15599999999995</v>
+      </c>
+      <c r="O45">
+        <v>3639.808</v>
+      </c>
+      <c r="P45">
+        <v>3059.547</v>
+      </c>
+      <c r="Q45">
+        <v>72.650999999999996</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2090.8789999999999</v>
+      </c>
+      <c r="U45">
+        <v>370.52300000000002</v>
+      </c>
+      <c r="V45">
+        <v>141.87</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>744.14700000000005</v>
+      </c>
+      <c r="Y45">
+        <v>128.30500000000001</v>
+      </c>
+      <c r="Z45">
+        <v>-677.22900000000004</v>
+      </c>
+      <c r="AA45">
+        <v>20.318999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="D46">
+        <v>422.11599999999999</v>
+      </c>
+      <c r="E46">
+        <v>139.05699999999999</v>
+      </c>
+      <c r="F46">
+        <v>200.845</v>
+      </c>
+      <c r="G46">
+        <v>600.03599999999994</v>
+      </c>
+      <c r="H46">
+        <v>5785.3239999999996</v>
+      </c>
+      <c r="I46">
+        <v>23.268000000000001</v>
+      </c>
+      <c r="J46">
+        <v>2363.5639999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>725.25400000000002</v>
+      </c>
+      <c r="O46">
+        <v>3765.511</v>
+      </c>
+      <c r="P46">
+        <v>3099.13</v>
+      </c>
+      <c r="Q46">
+        <v>-91.7</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2709</v>
+      </c>
+      <c r="T46">
+        <v>2019.8130000000001</v>
+      </c>
+      <c r="U46">
+        <v>278.82299999999998</v>
+      </c>
+      <c r="V46">
+        <v>187.62100000000001</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-83.382999999999996</v>
+      </c>
+      <c r="Y46">
+        <v>390.26900000000001</v>
+      </c>
+      <c r="Z46">
+        <v>1.4</v>
+      </c>
+      <c r="AA46">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>34.523000000000003</v>
+      </c>
+      <c r="D47">
+        <v>443.245</v>
+      </c>
+      <c r="E47">
+        <v>158.56100000000001</v>
+      </c>
+      <c r="F47">
+        <v>226.14699999999999</v>
+      </c>
+      <c r="G47">
+        <v>890.11300000000006</v>
+      </c>
+      <c r="H47">
+        <v>5884.3450000000003</v>
+      </c>
+      <c r="I47">
+        <v>26.422999999999998</v>
+      </c>
+      <c r="J47">
+        <v>2616.3209999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-69.954999999999998</v>
+      </c>
+      <c r="N47">
+        <v>718.08299999999997</v>
+      </c>
+      <c r="O47">
+        <v>3754.7950000000001</v>
+      </c>
+      <c r="P47">
+        <v>3082.4479999999999</v>
+      </c>
+      <c r="Q47">
+        <v>354.12099999999998</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2129.5500000000002</v>
+      </c>
+      <c r="U47">
+        <v>632.94399999999996</v>
+      </c>
+      <c r="V47">
+        <v>125.99299999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-43.95</v>
+      </c>
+      <c r="Y47">
+        <v>129.33099999999999</v>
+      </c>
+      <c r="Z47">
+        <v>346.36599999999999</v>
+      </c>
+      <c r="AA47">
+        <v>34.523000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>36.447000000000003</v>
+      </c>
+      <c r="D48">
+        <v>453.23700000000002</v>
+      </c>
+      <c r="E48">
+        <v>169.81200000000001</v>
+      </c>
+      <c r="F48">
+        <v>225.99299999999999</v>
+      </c>
+      <c r="G48">
+        <v>894.12699999999995</v>
+      </c>
+      <c r="H48">
+        <v>5724.6880000000001</v>
+      </c>
+      <c r="I48">
+        <v>27.516999999999999</v>
+      </c>
+      <c r="J48">
+        <v>2621.9250000000002</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>491.15899999999999</v>
+      </c>
+      <c r="O48">
+        <v>3581.2130000000002</v>
+      </c>
+      <c r="P48">
+        <v>2893.473</v>
+      </c>
+      <c r="Q48">
+        <v>21.152000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2143.4749999999999</v>
+      </c>
+      <c r="U48">
+        <v>654.096</v>
+      </c>
+      <c r="V48">
+        <v>194.78200000000001</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-264.71600000000001</v>
+      </c>
+      <c r="Y48">
+        <v>185.779</v>
+      </c>
+      <c r="Z48">
+        <v>279.62099999999998</v>
+      </c>
+      <c r="AA48">
+        <v>33.201999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>23.72</v>
+      </c>
+      <c r="D49">
+        <v>484.83499999999998</v>
+      </c>
+      <c r="E49">
+        <v>181.97300000000001</v>
+      </c>
+      <c r="F49">
+        <v>233.88900000000001</v>
+      </c>
+      <c r="G49">
+        <v>560.399</v>
+      </c>
+      <c r="H49">
+        <v>5990.97</v>
+      </c>
+      <c r="I49">
+        <v>26.387</v>
+      </c>
+      <c r="J49">
+        <v>2702.4850000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>612.45899999999995</v>
+      </c>
+      <c r="O49">
+        <v>3679.13</v>
+      </c>
+      <c r="P49">
+        <v>2956.529</v>
+      </c>
+      <c r="Q49">
+        <v>-414.40899999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2311.84</v>
+      </c>
+      <c r="U49">
+        <v>239.68700000000001</v>
+      </c>
+      <c r="V49">
+        <v>107.559</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>73.697000000000003</v>
+      </c>
+      <c r="Y49">
+        <v>189.85900000000001</v>
+      </c>
+      <c r="Z49">
+        <v>-111.574</v>
+      </c>
+      <c r="AA49">
+        <v>26.965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>163.84</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>473.6</v>
+      </c>
+      <c r="H50">
+        <v>6135.7969999999996</v>
+      </c>
+      <c r="I50">
+        <v>27.658999999999999</v>
+      </c>
+      <c r="J50">
+        <v>2397.5279999999998</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>549.072</v>
+      </c>
+      <c r="O50">
+        <v>3738.1779999999999</v>
+      </c>
+      <c r="P50">
+        <v>3010.7469999999998</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3153</v>
+      </c>
+      <c r="T50">
+        <v>2397.6190000000001</v>
+      </c>
+      <c r="U50">
+        <v>252.21299999999999</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>545.85299999999995</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>32.843000000000004</v>
+      </c>
+      <c r="D51">
+        <v>516.13400000000001</v>
+      </c>
+      <c r="E51">
+        <v>185.16300000000001</v>
+      </c>
+      <c r="F51">
+        <v>257.54300000000001</v>
+      </c>
+      <c r="G51">
+        <v>1772.568</v>
+      </c>
+      <c r="H51">
+        <v>7612.933</v>
+      </c>
+      <c r="I51">
+        <v>28.812000000000001</v>
+      </c>
+      <c r="J51">
+        <v>3560.7139999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-17.568000000000001</v>
+      </c>
+      <c r="N51">
+        <v>1265.71</v>
+      </c>
+      <c r="O51">
+        <v>5173.7809999999999</v>
+      </c>
+      <c r="P51">
+        <v>4523.759</v>
+      </c>
+      <c r="Q51">
+        <v>432.80599999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2439.152</v>
+      </c>
+      <c r="U51">
+        <v>685.01900000000001</v>
+      </c>
+      <c r="V51">
+        <v>84.180999999999997</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1496.76</v>
+      </c>
+      <c r="Y51">
+        <v>149.39099999999999</v>
+      </c>
+      <c r="Z51">
+        <v>-232.965</v>
+      </c>
+      <c r="AA51">
+        <v>32.843000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-25.815999999999999</v>
+      </c>
+      <c r="D52">
+        <v>528.87099999999998</v>
+      </c>
+      <c r="E52">
+        <v>201.33600000000001</v>
+      </c>
+      <c r="F52">
+        <v>261.762</v>
+      </c>
+      <c r="G52">
+        <v>774.149</v>
+      </c>
+      <c r="H52">
+        <v>7077.8490000000002</v>
+      </c>
+      <c r="I52">
+        <v>34.222999999999999</v>
+      </c>
+      <c r="J52">
+        <v>3587.4810000000002</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>607.53499999999997</v>
+      </c>
+      <c r="O52">
+        <v>4669.3599999999997</v>
+      </c>
+      <c r="P52">
+        <v>3941.6790000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-167.523</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2408.489</v>
+      </c>
+      <c r="U52">
+        <v>517.49599999999998</v>
+      </c>
+      <c r="V52">
+        <v>147.15899999999999</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-850.03399999999999</v>
+      </c>
+      <c r="Y52">
+        <v>228.57599999999999</v>
+      </c>
+      <c r="Z52">
+        <v>-175.59299999999999</v>
+      </c>
+      <c r="AA52">
+        <v>-25.815999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>42.470999999999997</v>
+      </c>
+      <c r="D53">
+        <v>543.08399999999995</v>
+      </c>
+      <c r="E53">
+        <v>199.64400000000001</v>
+      </c>
+      <c r="F53">
+        <v>274.12400000000002</v>
+      </c>
+      <c r="G53">
+        <v>658.73599999999999</v>
+      </c>
+      <c r="H53">
+        <v>7389.0439999999999</v>
+      </c>
+      <c r="I53">
+        <v>28.483000000000001</v>
+      </c>
+      <c r="J53">
+        <v>3615.864</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>582.22500000000002</v>
+      </c>
+      <c r="O53">
+        <v>4834.9889999999996</v>
+      </c>
+      <c r="P53">
+        <v>4046.576</v>
+      </c>
+      <c r="Q53">
+        <v>-117.754</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2554.0549999999998</v>
+      </c>
+      <c r="U53">
+        <v>399.74200000000002</v>
+      </c>
+      <c r="V53">
+        <v>206.56200000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-1.1779999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>373.548</v>
+      </c>
+      <c r="Z53">
+        <v>-89.218999999999994</v>
+      </c>
+      <c r="AA53">
+        <v>42.470999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>45.186999999999998</v>
+      </c>
+      <c r="D54">
+        <v>564.67700000000002</v>
+      </c>
+      <c r="E54">
+        <v>184.84</v>
+      </c>
+      <c r="F54">
+        <v>294.93400000000003</v>
+      </c>
+      <c r="G54">
+        <v>518.85199999999998</v>
+      </c>
+      <c r="H54">
+        <v>7492.3590000000004</v>
+      </c>
+      <c r="I54">
+        <v>30.291</v>
+      </c>
+      <c r="J54">
+        <v>3173.902</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>546.50400000000002</v>
+      </c>
+      <c r="O54">
+        <v>4909.393</v>
+      </c>
+      <c r="P54">
+        <v>4158.6559999999999</v>
+      </c>
+      <c r="Q54">
+        <v>-137.84800000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3500</v>
+      </c>
+      <c r="T54">
+        <v>2582.9659999999999</v>
+      </c>
+      <c r="U54">
+        <v>261.89400000000001</v>
+      </c>
+      <c r="V54">
+        <v>166.70599999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-70.641000000000005</v>
+      </c>
+      <c r="Y54">
+        <v>914.03200000000004</v>
+      </c>
+      <c r="Z54">
+        <v>18.640999999999998</v>
+      </c>
+      <c r="AA54">
+        <v>45.186999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>41.387</v>
+      </c>
+      <c r="D55">
+        <v>580.053</v>
+      </c>
+      <c r="E55">
+        <v>213.56</v>
+      </c>
+      <c r="F55">
+        <v>292.52800000000002</v>
+      </c>
+      <c r="G55">
+        <v>763.64400000000001</v>
+      </c>
+      <c r="H55">
+        <v>7730.598</v>
+      </c>
+      <c r="I55">
+        <v>34.363</v>
+      </c>
+      <c r="J55">
+        <v>3733.451</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-14.567</v>
+      </c>
+      <c r="N55">
+        <v>595.15599999999995</v>
+      </c>
+      <c r="O55">
+        <v>5086.6329999999998</v>
+      </c>
+      <c r="P55">
+        <v>4279.3710000000001</v>
+      </c>
+      <c r="Q55">
+        <v>233.28</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2643.9650000000001</v>
+      </c>
+      <c r="U55">
+        <v>495.17399999999998</v>
+      </c>
+      <c r="V55">
+        <v>171.71799999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-37.281999999999996</v>
+      </c>
+      <c r="Y55">
+        <v>473.91800000000001</v>
+      </c>
+      <c r="Z55">
+        <v>221.654</v>
+      </c>
+      <c r="AA55">
+        <v>41.387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>11.327999999999999</v>
+      </c>
+      <c r="D56">
+        <v>605.16099999999994</v>
+      </c>
+      <c r="E56">
+        <v>237.83099999999999</v>
+      </c>
+      <c r="F56">
+        <v>312.30200000000002</v>
+      </c>
+      <c r="G56">
+        <v>747.20899999999995</v>
+      </c>
+      <c r="H56">
+        <v>7639.6109999999999</v>
+      </c>
+      <c r="I56">
+        <v>21.018999999999998</v>
+      </c>
+      <c r="J56">
+        <v>3333.732</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>563.31500000000005</v>
+      </c>
+      <c r="O56">
+        <v>4729.3959999999997</v>
+      </c>
+      <c r="P56">
+        <v>3936.1750000000002</v>
+      </c>
+      <c r="Q56">
+        <v>-86.84</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2910.2150000000001</v>
+      </c>
+      <c r="U56">
+        <v>408.334</v>
+      </c>
+      <c r="V56">
+        <v>98.963999999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-278.928</v>
+      </c>
+      <c r="Y56">
+        <v>529.596</v>
+      </c>
+      <c r="Z56">
+        <v>250.73699999999999</v>
+      </c>
+      <c r="AA56">
+        <v>11.327999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>42.841000000000001</v>
+      </c>
+      <c r="D57">
+        <v>620.44100000000003</v>
+      </c>
+      <c r="E57">
+        <v>275.26400000000001</v>
+      </c>
+      <c r="F57">
+        <v>316.38900000000001</v>
+      </c>
+      <c r="G57">
+        <v>726.85199999999998</v>
+      </c>
+      <c r="H57">
+        <v>7462</v>
+      </c>
+      <c r="I57">
+        <v>42.304000000000002</v>
+      </c>
+      <c r="J57">
+        <v>3332.9949999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>668.2</v>
+      </c>
+      <c r="O57">
+        <v>4864.32</v>
+      </c>
+      <c r="P57">
+        <v>3983.6550000000002</v>
+      </c>
+      <c r="Q57">
+        <v>-54.152999999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2597.6799999999998</v>
+      </c>
+      <c r="U57">
+        <v>354.18099999999998</v>
+      </c>
+      <c r="V57">
+        <v>216.441</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-256.23899999999998</v>
+      </c>
+      <c r="Y57">
+        <v>572.76099999999997</v>
+      </c>
+      <c r="Z57">
+        <v>148.78899999999999</v>
+      </c>
+      <c r="AA57">
+        <v>42.841000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-355.10300000000001</v>
+      </c>
+      <c r="D58">
+        <v>638.12099999999998</v>
+      </c>
+      <c r="E58">
+        <v>262.57</v>
+      </c>
+      <c r="F58">
+        <v>324.67200000000003</v>
+      </c>
+      <c r="G58">
+        <v>961.548</v>
+      </c>
+      <c r="H58">
+        <v>7781.9780000000001</v>
+      </c>
+      <c r="I58">
+        <v>30.221</v>
+      </c>
+      <c r="J58">
+        <v>3395.0839999999998</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>643.75699999999995</v>
+      </c>
+      <c r="O58">
+        <v>5511.8469999999998</v>
+      </c>
+      <c r="P58">
+        <v>4643.9539999999997</v>
+      </c>
+      <c r="Q58">
+        <v>256.73599999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3866</v>
+      </c>
+      <c r="T58">
+        <v>2270.1309999999999</v>
+      </c>
+      <c r="U58">
+        <v>610.91700000000003</v>
+      </c>
+      <c r="V58">
+        <v>202.297</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>679.85</v>
+      </c>
+      <c r="Y58">
+        <v>1168.0419999999999</v>
+      </c>
+      <c r="Z58">
+        <v>-381.62900000000002</v>
+      </c>
+      <c r="AA58">
+        <v>-355.10300000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>76.451999999999998</v>
+      </c>
+      <c r="D59">
+        <v>643.17399999999998</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>344.86099999999999</v>
+      </c>
+      <c r="G59">
+        <v>917.20100000000002</v>
+      </c>
+      <c r="H59">
+        <v>7727.6940000000004</v>
+      </c>
+      <c r="I59">
+        <v>321.94200000000001</v>
+      </c>
+      <c r="J59">
+        <v>3994.1080000000002</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-18.657</v>
+      </c>
+      <c r="N59">
+        <v>666.35500000000002</v>
+      </c>
+      <c r="O59">
+        <v>5565.9650000000001</v>
+      </c>
+      <c r="P59">
+        <v>4666.6499999999996</v>
+      </c>
+      <c r="Q59">
+        <v>-74.207999999999998</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2161.7289999999998</v>
+      </c>
+      <c r="U59">
+        <v>536.70899999999995</v>
+      </c>
+      <c r="V59">
+        <v>232.81100000000001</v>
+      </c>
+      <c r="W59">
+        <v>-96.619</v>
+      </c>
+      <c r="X59">
+        <v>-98.793999999999997</v>
+      </c>
+      <c r="Y59">
+        <v>593.78399999999999</v>
+      </c>
+      <c r="Z59">
+        <v>-4.7060000000000004</v>
+      </c>
+      <c r="AA59">
+        <v>76.451999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>59.459000000000003</v>
+      </c>
+      <c r="D60">
+        <v>665.58199999999999</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>349.82499999999999</v>
+      </c>
+      <c r="G60">
+        <v>1234.721</v>
+      </c>
+      <c r="H60">
+        <v>7826.018</v>
+      </c>
+      <c r="I60">
+        <v>315.55399999999997</v>
+      </c>
+      <c r="J60">
+        <v>3851.0819999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>817.73199999999997</v>
+      </c>
+      <c r="O60">
+        <v>5623.4279999999999</v>
+      </c>
+      <c r="P60">
+        <v>4710.03</v>
+      </c>
+      <c r="Q60">
+        <v>-200.57599999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2202.59</v>
+      </c>
+      <c r="U60">
+        <v>336.13299999999998</v>
+      </c>
+      <c r="V60">
+        <v>212.46299999999999</v>
+      </c>
+      <c r="W60">
+        <v>-96.349000000000004</v>
+      </c>
+      <c r="X60">
+        <v>-119.562</v>
+      </c>
+      <c r="Y60">
+        <v>623.29499999999996</v>
+      </c>
+      <c r="Z60">
+        <v>433.96600000000001</v>
+      </c>
+      <c r="AA60">
+        <v>59.459000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>41.131999999999998</v>
+      </c>
+      <c r="D61">
+        <v>686.649</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>361.18099999999998</v>
+      </c>
+      <c r="G61">
+        <v>1242.0229999999999</v>
+      </c>
+      <c r="H61">
+        <v>7705.6660000000002</v>
+      </c>
+      <c r="I61">
+        <v>340.36599999999999</v>
+      </c>
+      <c r="J61">
+        <v>3787.1570000000002</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1464.114</v>
+      </c>
+      <c r="O61">
+        <v>6217.0129999999999</v>
+      </c>
+      <c r="P61">
+        <v>4636.4120000000003</v>
+      </c>
+      <c r="Q61">
+        <v>-0.66400000000000003</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1488.653</v>
+      </c>
+      <c r="U61">
+        <v>335.46899999999999</v>
+      </c>
+      <c r="V61">
+        <v>214.40100000000001</v>
+      </c>
+      <c r="W61">
+        <v>-98.040999999999997</v>
+      </c>
+      <c r="X61">
+        <v>-101.41200000000001</v>
+      </c>
+      <c r="Y61">
+        <v>615.92100000000005</v>
+      </c>
+      <c r="Z61">
+        <v>94.216999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>41.131999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>10.731</v>
+      </c>
+      <c r="D62">
+        <v>730.46199999999999</v>
+      </c>
+      <c r="E62">
+        <v>291.964</v>
+      </c>
+      <c r="F62">
+        <v>378.49400000000003</v>
+      </c>
+      <c r="G62">
+        <v>3246.4050000000002</v>
+      </c>
+      <c r="H62">
+        <v>10356.695</v>
+      </c>
+      <c r="I62">
+        <v>49.892000000000003</v>
+      </c>
+      <c r="J62">
+        <v>4277.4030000000002</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1656.354</v>
+      </c>
+      <c r="O62">
+        <v>7611.3090000000002</v>
+      </c>
+      <c r="P62">
+        <v>6521.02</v>
+      </c>
+      <c r="Q62">
+        <v>1893.3689999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>5042</v>
+      </c>
+      <c r="T62">
+        <v>2745.386</v>
+      </c>
+      <c r="U62">
+        <v>2228.8380000000002</v>
+      </c>
+      <c r="V62">
+        <v>235.11799999999999</v>
+      </c>
+      <c r="W62">
+        <v>-104.96599999999999</v>
+      </c>
+      <c r="X62">
+        <v>2192.9499999999998</v>
+      </c>
+      <c r="Y62">
+        <v>1287.1389999999999</v>
+      </c>
+      <c r="Z62">
+        <v>-9.3689999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>10.731</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-31.111000000000001</v>
+      </c>
+      <c r="D63">
+        <v>844.15599999999995</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>416.476</v>
+      </c>
+      <c r="G63">
+        <v>2155.9879999999998</v>
+      </c>
+      <c r="H63">
+        <v>13495.834999999999</v>
+      </c>
+      <c r="I63">
+        <v>475.34300000000002</v>
+      </c>
+      <c r="J63">
+        <v>5809.0529999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-969.58500000000004</v>
+      </c>
+      <c r="N63">
+        <v>1580.1949999999999</v>
+      </c>
+      <c r="O63">
+        <v>8676.73</v>
+      </c>
+      <c r="P63">
+        <v>7181.7910000000002</v>
+      </c>
+      <c r="Q63">
+        <v>-2070.7890000000002</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4819.1049999999996</v>
+      </c>
+      <c r="U63">
+        <v>633.75800000000004</v>
+      </c>
+      <c r="V63">
+        <v>104.834</v>
+      </c>
+      <c r="W63">
+        <v>-124.836</v>
+      </c>
+      <c r="X63">
+        <v>-376.93200000000002</v>
+      </c>
+      <c r="Y63">
+        <v>689.06600000000003</v>
+      </c>
+      <c r="Z63">
+        <v>3.419</v>
+      </c>
+      <c r="AA63">
+        <v>-31.111000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>44.710999999999999</v>
+      </c>
+      <c r="D64">
+        <v>887.91</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>430.94299999999998</v>
+      </c>
+      <c r="G64">
+        <v>2092.1010000000001</v>
+      </c>
+      <c r="H64">
+        <v>13269.045</v>
+      </c>
+      <c r="I64">
+        <v>498.21199999999999</v>
+      </c>
+      <c r="J64">
+        <v>5699.3109999999997</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1559.779</v>
+      </c>
+      <c r="O64">
+        <v>8563.58</v>
+      </c>
+      <c r="P64">
+        <v>7001.2250000000004</v>
+      </c>
+      <c r="Q64">
+        <v>-150.881</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4705.4650000000001</v>
+      </c>
+      <c r="U64">
+        <v>483.16</v>
+      </c>
+      <c r="V64">
+        <v>278.26400000000001</v>
+      </c>
+      <c r="W64">
+        <v>-121.858</v>
+      </c>
+      <c r="X64">
+        <v>-169.36099999999999</v>
+      </c>
+      <c r="Y64">
+        <v>697.97199999999998</v>
+      </c>
+      <c r="Z64">
+        <v>8.7639999999999993</v>
+      </c>
+      <c r="AA64">
+        <v>44.710999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>914.57600000000002</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>444.274</v>
+      </c>
+      <c r="G65">
+        <v>1660.0409999999999</v>
+      </c>
+      <c r="H65">
+        <v>13097.557000000001</v>
+      </c>
+      <c r="I65">
+        <v>534.60199999999998</v>
+      </c>
+      <c r="J65">
+        <v>5635.0910000000003</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1495.566</v>
+      </c>
+      <c r="O65">
+        <v>8473.8469999999998</v>
+      </c>
+      <c r="P65">
+        <v>6925.31</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4623.71</v>
+      </c>
+      <c r="U65">
+        <v>987.91499999999996</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>679.11400000000003</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>51.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>61.75</v>
+      </c>
+      <c r="D66">
+        <v>965.34699999999998</v>
+      </c>
+      <c r="E66">
+        <v>396.245</v>
+      </c>
+      <c r="F66">
+        <v>499.42599999999999</v>
+      </c>
+      <c r="G66">
+        <v>1464.117</v>
+      </c>
+      <c r="H66">
+        <v>12608.370999999999</v>
+      </c>
+      <c r="I66">
+        <v>60.210999999999999</v>
+      </c>
+      <c r="J66">
+        <v>5179.857</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1028.6949999999999</v>
+      </c>
+      <c r="O66">
+        <v>8242.5419999999995</v>
+      </c>
+      <c r="P66">
+        <v>6759.5730000000003</v>
+      </c>
+      <c r="Q66">
+        <v>-250.29400000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>5993</v>
+      </c>
+      <c r="T66">
+        <v>4365.8289999999997</v>
+      </c>
+      <c r="U66">
+        <v>748.476</v>
+      </c>
+      <c r="V66">
+        <v>300.61799999999999</v>
+      </c>
+      <c r="W66">
+        <v>-125.312</v>
+      </c>
+      <c r="X66">
+        <v>-158.20099999999999</v>
+      </c>
+      <c r="Y66">
+        <v>1410.742</v>
+      </c>
+      <c r="Z66">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AA66">
+        <v>61.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>42.061999999999998</v>
+      </c>
+      <c r="D67">
+        <v>949.52499999999998</v>
+      </c>
+      <c r="E67">
+        <v>429.99</v>
+      </c>
+      <c r="F67">
+        <v>480.56400000000002</v>
+      </c>
+      <c r="G67">
+        <v>5559.2749999999996</v>
+      </c>
+      <c r="H67">
+        <v>17184.684000000001</v>
+      </c>
+      <c r="I67">
+        <v>515.95899999999995</v>
+      </c>
+      <c r="J67">
+        <v>8333.0210000000006</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-38.106000000000002</v>
+      </c>
+      <c r="N67">
+        <v>1020.068</v>
+      </c>
+      <c r="O67">
+        <v>10666.844999999999</v>
+      </c>
+      <c r="P67">
+        <v>9181.3690000000006</v>
+      </c>
+      <c r="Q67">
+        <v>4169.799</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6517.8389999999999</v>
+      </c>
+      <c r="U67">
+        <v>4923.259</v>
+      </c>
+      <c r="V67">
+        <v>247.37100000000001</v>
+      </c>
+      <c r="W67">
+        <v>-148.083</v>
+      </c>
+      <c r="X67">
+        <v>4225.2460000000001</v>
+      </c>
+      <c r="Y67">
+        <v>668.34699999999998</v>
+      </c>
+      <c r="Z67">
+        <v>-7.1040000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>42.061999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>45.805</v>
+      </c>
+      <c r="D68">
+        <v>1040.6210000000001</v>
+      </c>
+      <c r="E68">
+        <v>545.73400000000004</v>
+      </c>
+      <c r="F68">
+        <v>518.41800000000001</v>
+      </c>
+      <c r="G68">
+        <v>1845.3820000000001</v>
+      </c>
+      <c r="H68">
+        <v>17473.937000000002</v>
+      </c>
+      <c r="I68">
+        <v>612.59299999999996</v>
+      </c>
+      <c r="J68">
+        <v>8463.4950000000008</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1091.4349999999999</v>
+      </c>
+      <c r="O68">
+        <v>10950.273999999999</v>
+      </c>
+      <c r="P68">
+        <v>9289.1190000000006</v>
+      </c>
+      <c r="Q68">
+        <v>-3839.82</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6523.6629999999996</v>
+      </c>
+      <c r="U68">
+        <v>1063.777</v>
+      </c>
+      <c r="V68">
+        <v>306.47300000000001</v>
+      </c>
+      <c r="W68">
+        <v>-156.29</v>
+      </c>
+      <c r="X68">
+        <v>-212.89699999999999</v>
+      </c>
+      <c r="Y68">
+        <v>679.66499999999996</v>
+      </c>
+      <c r="Z68">
+        <v>10.303000000000001</v>
+      </c>
+      <c r="AA68">
+        <v>45.805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D69">
+        <v>1152.261</v>
+      </c>
+      <c r="E69">
+        <v>597.24199999999996</v>
+      </c>
+      <c r="F69">
+        <v>569.90099999999995</v>
+      </c>
+      <c r="G69">
+        <v>2414.2359999999999</v>
+      </c>
+      <c r="H69">
+        <v>18308.495999999999</v>
+      </c>
+      <c r="I69">
+        <v>657.22900000000004</v>
+      </c>
+      <c r="J69">
+        <v>9190.3700000000008</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1156.624</v>
+      </c>
+      <c r="O69">
+        <v>11766.279</v>
+      </c>
+      <c r="P69">
+        <v>10025.629999999999</v>
+      </c>
+      <c r="Q69">
+        <v>532.96900000000005</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>6542.2169999999996</v>
+      </c>
+      <c r="U69">
+        <v>1599.9880000000001</v>
+      </c>
+      <c r="V69">
+        <v>390.51</v>
+      </c>
+      <c r="W69">
+        <v>-159.541</v>
+      </c>
+      <c r="X69">
+        <v>496.625</v>
+      </c>
+      <c r="Y69">
+        <v>690.60400000000004</v>
+      </c>
+      <c r="Z69">
+        <v>-28.257999999999999</v>
+      </c>
+      <c r="AA69">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>65.215000000000003</v>
+      </c>
+      <c r="D70">
+        <v>1226.021</v>
+      </c>
+      <c r="E70">
+        <v>576.31299999999999</v>
+      </c>
+      <c r="F70">
+        <v>606.39599999999996</v>
+      </c>
+      <c r="G70">
+        <v>2220.857</v>
+      </c>
+      <c r="H70">
+        <v>18691.456999999999</v>
+      </c>
+      <c r="I70">
+        <v>101.744</v>
+      </c>
+      <c r="J70">
+        <v>8316.9670000000006</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1242.7339999999999</v>
+      </c>
+      <c r="O70">
+        <v>11841.666999999999</v>
+      </c>
+      <c r="P70">
+        <v>10080.419</v>
+      </c>
+      <c r="Q70">
+        <v>-185.494</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7273</v>
+      </c>
+      <c r="T70">
+        <v>6849.79</v>
+      </c>
+      <c r="U70">
+        <v>1412.5170000000001</v>
+      </c>
+      <c r="V70">
+        <v>494.87900000000002</v>
+      </c>
+      <c r="W70">
+        <v>-157.583</v>
+      </c>
+      <c r="X70">
+        <v>98.885999999999996</v>
+      </c>
+      <c r="Y70">
+        <v>1620.2560000000001</v>
+      </c>
+      <c r="Z70">
+        <v>13.554</v>
+      </c>
+      <c r="AA70">
+        <v>65.215000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>62.893999999999998</v>
+      </c>
+      <c r="D71">
+        <v>1215.877</v>
+      </c>
+      <c r="E71">
+        <v>655.048</v>
+      </c>
+      <c r="F71">
+        <v>593.447</v>
+      </c>
+      <c r="G71">
+        <v>2916.451</v>
+      </c>
+      <c r="H71">
+        <v>19941.928</v>
+      </c>
+      <c r="I71">
+        <v>686.61199999999997</v>
+      </c>
+      <c r="J71">
+        <v>10216.813</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-62.386000000000003</v>
+      </c>
+      <c r="N71">
+        <v>1246.4749999999999</v>
+      </c>
+      <c r="O71">
+        <v>12801.377</v>
+      </c>
+      <c r="P71">
+        <v>11103.831</v>
+      </c>
+      <c r="Q71">
+        <v>617.90899999999999</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7140.5510000000004</v>
+      </c>
+      <c r="U71">
+        <v>2023.808</v>
+      </c>
+      <c r="V71">
+        <v>300.90699999999998</v>
+      </c>
+      <c r="W71">
+        <v>-186.999</v>
+      </c>
+      <c r="X71">
+        <v>674.02499999999998</v>
+      </c>
+      <c r="Y71">
+        <v>729.93299999999999</v>
+      </c>
+      <c r="Z71">
+        <v>-0.497</v>
+      </c>
+      <c r="AA71">
+        <v>62.893999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>67.617999999999995</v>
+      </c>
+      <c r="D72">
+        <v>1293.2619999999999</v>
+      </c>
+      <c r="E72">
+        <v>626.22</v>
+      </c>
+      <c r="F72">
+        <v>641.46100000000001</v>
+      </c>
+      <c r="G72">
+        <v>1832.626</v>
+      </c>
+      <c r="H72">
+        <v>20070.288</v>
+      </c>
+      <c r="I72">
+        <v>710.58399999999995</v>
+      </c>
+      <c r="J72">
+        <v>10366.272000000001</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1433.62</v>
+      </c>
+      <c r="O72">
+        <v>13145.761</v>
+      </c>
+      <c r="P72">
+        <v>11390.005999999999</v>
+      </c>
+      <c r="Q72">
+        <v>-1066.3710000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>6924.527</v>
+      </c>
+      <c r="U72">
+        <v>966.30799999999999</v>
+      </c>
+      <c r="V72">
+        <v>538.72799999999995</v>
+      </c>
+      <c r="W72">
+        <v>-181.76</v>
+      </c>
+      <c r="X72">
+        <v>-206.28200000000001</v>
+      </c>
+      <c r="Y72">
+        <v>712.41899999999998</v>
+      </c>
+      <c r="Z72">
+        <v>13.24</v>
+      </c>
+      <c r="AA72">
+        <v>67.617999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>124.825</v>
+      </c>
+      <c r="D73">
+        <v>1287.0450000000001</v>
+      </c>
+      <c r="E73">
+        <v>671.94399999999996</v>
+      </c>
+      <c r="F73">
+        <v>626.73599999999999</v>
+      </c>
+      <c r="G73">
+        <v>1791.5719999999999</v>
+      </c>
+      <c r="H73">
+        <v>20288.071</v>
+      </c>
+      <c r="I73">
+        <v>739.11699999999996</v>
+      </c>
+      <c r="J73">
+        <v>9646.259</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1461.319</v>
+      </c>
+      <c r="O73">
+        <v>13127.897999999999</v>
+      </c>
+      <c r="P73">
+        <v>11354.583000000001</v>
+      </c>
+      <c r="Q73">
+        <v>-103.83499999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7160.1729999999998</v>
+      </c>
+      <c r="U73">
+        <v>870.48599999999999</v>
+      </c>
+      <c r="V73">
+        <v>417.16199999999998</v>
+      </c>
+      <c r="W73">
+        <v>-185.983</v>
+      </c>
+      <c r="X73">
+        <v>104.06399999999999</v>
+      </c>
+      <c r="Y73">
+        <v>1386.26</v>
+      </c>
+      <c r="Z73">
+        <v>6.452</v>
+      </c>
+      <c r="AA73">
+        <v>124.825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>110.02200000000001</v>
+      </c>
+      <c r="D74">
+        <v>1306.0730000000001</v>
+      </c>
+      <c r="E74">
+        <v>639.89700000000005</v>
+      </c>
+      <c r="F74">
+        <v>635.13800000000003</v>
+      </c>
+      <c r="G74">
+        <v>1511.1420000000001</v>
+      </c>
+      <c r="H74">
+        <v>20244.637999999999</v>
+      </c>
+      <c r="I74">
+        <v>96.98</v>
+      </c>
+      <c r="J74">
+        <v>9439.4480000000003</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1515.0709999999999</v>
+      </c>
+      <c r="O74">
+        <v>13025.359</v>
+      </c>
+      <c r="P74">
+        <v>11332.496999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-270.8</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>7903</v>
+      </c>
+      <c r="T74">
+        <v>7219.2790000000005</v>
+      </c>
+      <c r="U74">
+        <v>606.16600000000005</v>
+      </c>
+      <c r="V74">
+        <v>558.62900000000002</v>
+      </c>
+      <c r="W74">
+        <v>-183.858</v>
+      </c>
+      <c r="X74">
+        <v>-100.895</v>
+      </c>
+      <c r="Y74">
+        <v>1441.077</v>
+      </c>
+      <c r="Z74">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="AA74">
+        <v>110.02200000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>118.078</v>
+      </c>
+      <c r="D75">
+        <v>1363.2180000000001</v>
+      </c>
+      <c r="E75">
+        <v>703.83500000000004</v>
+      </c>
+      <c r="F75">
+        <v>681.18799999999999</v>
+      </c>
+      <c r="G75">
+        <v>2611.9380000000001</v>
+      </c>
+      <c r="H75">
+        <v>22491.091</v>
+      </c>
+      <c r="I75">
+        <v>746.77099999999996</v>
+      </c>
+      <c r="J75">
+        <v>9354.134</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-49.491999999999997</v>
+      </c>
+      <c r="N75">
+        <v>1685.3510000000001</v>
+      </c>
+      <c r="O75">
+        <v>14066.303</v>
+      </c>
+      <c r="P75">
+        <v>12398.36</v>
+      </c>
+      <c r="Q75">
+        <v>1027.9110000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>8424.7880000000005</v>
+      </c>
+      <c r="U75">
+        <v>1633.8440000000001</v>
+      </c>
+      <c r="V75">
+        <v>421.14100000000002</v>
+      </c>
+      <c r="W75">
+        <v>-204.60300000000001</v>
+      </c>
+      <c r="X75">
+        <v>986.93200000000002</v>
+      </c>
+      <c r="Y75">
+        <v>2482.7559999999999</v>
+      </c>
+      <c r="Z75">
+        <v>-8.7789999999999999</v>
+      </c>
+      <c r="AA75">
+        <v>118.078</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>143.52699999999999</v>
+      </c>
+      <c r="D76">
+        <v>1356.4490000000001</v>
+      </c>
+      <c r="E76">
+        <v>752.68</v>
+      </c>
+      <c r="F76">
+        <v>658.27</v>
+      </c>
+      <c r="G76">
+        <v>2971.2820000000002</v>
+      </c>
+      <c r="H76">
+        <v>22886.505000000001</v>
+      </c>
+      <c r="I76">
+        <v>768.67</v>
+      </c>
+      <c r="J76">
+        <v>9227.018</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1884.405</v>
+      </c>
+      <c r="O76">
+        <v>14137.276</v>
+      </c>
+      <c r="P76">
+        <v>12267.772000000001</v>
+      </c>
+      <c r="Q76">
+        <v>-18.222999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8749.2289999999994</v>
+      </c>
+      <c r="U76">
+        <v>1613.529</v>
+      </c>
+      <c r="V76">
+        <v>542.923</v>
+      </c>
+      <c r="W76">
+        <v>-208.44900000000001</v>
+      </c>
+      <c r="X76">
+        <v>-40.159999999999997</v>
+      </c>
+      <c r="Y76">
+        <v>2465.203</v>
+      </c>
+      <c r="Z76">
+        <v>-3.0630000000000002</v>
+      </c>
+      <c r="AA76">
+        <v>143.52699999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>120.85</v>
+      </c>
+      <c r="D77">
+        <v>1369.5050000000001</v>
+      </c>
+      <c r="E77">
+        <v>746.57100000000003</v>
+      </c>
+      <c r="F77">
+        <v>665.16600000000005</v>
+      </c>
+      <c r="G77">
+        <v>2833.69</v>
+      </c>
+      <c r="H77">
+        <v>22842.332999999999</v>
+      </c>
+      <c r="I77">
+        <v>755.15</v>
+      </c>
+      <c r="J77">
+        <v>9050.5239999999994</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1836.4829999999999</v>
+      </c>
+      <c r="O77">
+        <v>14081.302</v>
+      </c>
+      <c r="P77">
+        <v>12259.682000000001</v>
+      </c>
+      <c r="Q77">
+        <v>-217.15899999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>8761.0310000000009</v>
+      </c>
+      <c r="U77">
+        <v>1402.4</v>
+      </c>
+      <c r="V77">
+        <v>498.99400000000003</v>
+      </c>
+      <c r="W77">
+        <v>-212.75200000000001</v>
+      </c>
+      <c r="X77">
+        <v>-126.163</v>
+      </c>
+      <c r="Y77">
+        <v>2635.3829999999998</v>
+      </c>
+      <c r="Z77">
+        <v>-2.9049999999999998</v>
+      </c>
+      <c r="AA77">
+        <v>120.85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>124.995</v>
+      </c>
+      <c r="D78">
+        <v>1394.0039999999999</v>
+      </c>
+      <c r="E78">
+        <v>699.16700000000003</v>
+      </c>
+      <c r="F78">
+        <v>668.36800000000005</v>
+      </c>
+      <c r="G78">
+        <v>2862.2539999999999</v>
+      </c>
+      <c r="H78">
+        <v>23965.615000000002</v>
+      </c>
+      <c r="I78">
+        <v>52.231999999999999</v>
+      </c>
+      <c r="J78">
+        <v>9599.107</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2157.8629999999998</v>
+      </c>
+      <c r="O78">
+        <v>15125.233</v>
+      </c>
+      <c r="P78">
+        <v>13287.316999999999</v>
+      </c>
+      <c r="Q78">
+        <v>466.48</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>8378</v>
+      </c>
+      <c r="T78">
+        <v>8840.3819999999996</v>
+      </c>
+      <c r="U78">
+        <v>1869.577</v>
+      </c>
+      <c r="V78">
+        <v>529.66999999999996</v>
+      </c>
+      <c r="W78">
+        <v>-210.36</v>
+      </c>
+      <c r="X78">
+        <v>381.47300000000001</v>
+      </c>
+      <c r="Y78">
+        <v>2746.538</v>
+      </c>
+      <c r="Z78">
+        <v>-5.7759999999999998</v>
+      </c>
+      <c r="AA78">
+        <v>124.995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>118.792</v>
+      </c>
+      <c r="D79">
+        <v>1444.5419999999999</v>
+      </c>
+      <c r="E79">
+        <v>687.15300000000002</v>
+      </c>
+      <c r="F79">
+        <v>708.26</v>
+      </c>
+      <c r="G79">
+        <v>2294.2759999999998</v>
+      </c>
+      <c r="H79">
+        <v>23590.698</v>
+      </c>
+      <c r="I79">
+        <v>717.57399999999996</v>
+      </c>
+      <c r="J79">
+        <v>9722.94</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-381.18900000000002</v>
+      </c>
+      <c r="N79">
+        <v>1838.473</v>
+      </c>
+      <c r="O79">
+        <v>14921.404</v>
+      </c>
+      <c r="P79">
+        <v>13079.581</v>
+      </c>
+      <c r="Q79">
+        <v>-700.10199999999998</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>8669.2939999999999</v>
+      </c>
+      <c r="U79">
+        <v>1171.3389999999999</v>
+      </c>
+      <c r="V79">
+        <v>516.83000000000004</v>
+      </c>
+      <c r="W79">
+        <v>-233.47900000000001</v>
+      </c>
+      <c r="X79">
+        <v>-237.10400000000001</v>
+      </c>
+      <c r="Y79">
+        <v>2751.9090000000001</v>
+      </c>
+      <c r="Z79">
+        <v>-38.94</v>
+      </c>
+      <c r="AA79">
+        <v>118.792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>133.304</v>
+      </c>
+      <c r="D80">
+        <v>1429.3679999999999</v>
+      </c>
+      <c r="E80">
+        <v>691.58900000000006</v>
+      </c>
+      <c r="F80">
+        <v>690.024</v>
+      </c>
+      <c r="G80">
+        <v>5959.348</v>
+      </c>
+      <c r="H80">
+        <v>27792.63</v>
+      </c>
+      <c r="I80">
+        <v>745.51700000000005</v>
+      </c>
+      <c r="J80">
+        <v>10022.682000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3855.7710000000002</v>
+      </c>
+      <c r="O80">
+        <v>17404.371999999999</v>
+      </c>
+      <c r="P80">
+        <v>15470.082</v>
+      </c>
+      <c r="Q80">
+        <v>3620.63</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>10388.258</v>
+      </c>
+      <c r="U80">
+        <v>4785.05</v>
+      </c>
+      <c r="V80">
+        <v>574.68600000000004</v>
+      </c>
+      <c r="W80">
+        <v>-236.00800000000001</v>
+      </c>
+      <c r="X80">
+        <v>3562.9769999999999</v>
+      </c>
+      <c r="Y80">
+        <v>2901.7939999999999</v>
+      </c>
+      <c r="Z80">
+        <v>-1.341</v>
+      </c>
+      <c r="AA80">
+        <v>133.304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>66.686999999999998</v>
+      </c>
+      <c r="D81">
+        <v>1517.2929999999999</v>
+      </c>
+      <c r="E81">
+        <v>705.50900000000001</v>
+      </c>
+      <c r="F81">
+        <v>749.31399999999996</v>
+      </c>
+      <c r="G81">
+        <v>4029.8420000000001</v>
+      </c>
+      <c r="H81">
+        <v>26436.714</v>
+      </c>
+      <c r="I81">
+        <v>822.06200000000001</v>
+      </c>
+      <c r="J81">
+        <v>8402.5120000000006</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3796.183</v>
+      </c>
+      <c r="O81">
+        <v>15880.748</v>
+      </c>
+      <c r="P81">
+        <v>13742.019</v>
+      </c>
+      <c r="Q81">
+        <v>-2141.0529999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>10555.966</v>
+      </c>
+      <c r="U81">
+        <v>2645.0450000000001</v>
+      </c>
+      <c r="V81">
+        <v>532.16200000000003</v>
+      </c>
+      <c r="W81">
+        <v>-240.69</v>
+      </c>
+      <c r="X81">
+        <v>-2088.5169999999998</v>
+      </c>
+      <c r="Y81">
+        <v>2960.44</v>
+      </c>
+      <c r="Z81">
+        <v>3.9689999999999999</v>
+      </c>
+      <c r="AA81">
+        <v>66.686999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>50.994</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1571.905</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>690.27200000000005</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>741.17</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2604.623</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>27006.841</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>77.704999999999998</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>10305.531000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2024.75</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>16372.723</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>13923.339</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-1040.393</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>10013</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>10634.118</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1604.8689999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>686.14800000000002</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-237.756</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-421.83</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>3093.4430000000002</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-62.098999999999997</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>50.994</v>
       </c>
     </row>
